--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmu\Documents\Projects\Which Car\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F542485-83A5-4A42-AF61-0D75AB072EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7709CC2B-9312-441E-83F3-F2B142E87678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3B4BDF85-B6F6-4055-99A3-4008C0DAF8C5}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Brand-Model" sheetId="2" r:id="rId1"/>
     <sheet name="Segment" sheetId="3" r:id="rId2"/>
     <sheet name="Detail" sheetId="4" r:id="rId3"/>
+    <sheet name="Suggestion Criteria" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
   <si>
     <t>Audi</t>
   </si>
@@ -545,13 +546,25 @@
   </si>
   <si>
     <t>Segment</t>
+  </si>
+  <si>
+    <t>Cons / Pros</t>
+  </si>
+  <si>
+    <t>Performance Value</t>
+  </si>
+  <si>
+    <t>Security Value</t>
+  </si>
+  <si>
+    <t>Value / Criteria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +583,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -596,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -609,25 +630,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -641,6 +669,40 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -690,10 +752,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B644345E-AE9A-4D52-90BE-423D511E9041}" name="Table26" displayName="Table26" ref="A1:D19" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B644345E-AE9A-4D52-90BE-423D511E9041}" name="Table26" displayName="Table26" ref="A1:D19" headerRowDxfId="9">
   <autoFilter ref="A1:D19" xr:uid="{B644345E-AE9A-4D52-90BE-423D511E9041}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{505A9955-DE8D-41AF-8C1B-14991DB9BD68}" name="Brand / Type" totalsRowLabel="Total" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{505A9955-DE8D-41AF-8C1B-14991DB9BD68}" name="Brand / Type" totalsRowLabel="Total" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{63963C1F-F34E-4D79-BC00-59FA655F49B2}" name="Hatchback"/>
     <tableColumn id="3" xr3:uid="{B5E7656B-5155-445F-9633-EDD5B4E1CF20}" name="Sedan"/>
     <tableColumn id="4" xr3:uid="{14D18755-A730-49F1-A4E5-76DAD0033DB0}" name="SUV" totalsRowFunction="count"/>
@@ -703,7 +765,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78612532-9585-4A00-8DB4-111100844320}" name="Table37" displayName="Table37" ref="E1:E19" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78612532-9585-4A00-8DB4-111100844320}" name="Table37" displayName="Table37" ref="E1:E19" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="E1:E19" xr:uid="{78612532-9585-4A00-8DB4-111100844320}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{CD5B4547-99DC-4A2C-AE45-5C80503FAF10}" name="Coupe"/>
@@ -713,10 +775,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2CFE93AB-7EB8-4570-9A65-AF77ABD6A551}" name="Table1" displayName="Table1" ref="A1:S6" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2CFE93AB-7EB8-4570-9A65-AF77ABD6A551}" name="Table1" displayName="Table1" ref="A1:S6" headerRowDxfId="6">
   <autoFilter ref="A1:S6" xr:uid="{2CFE93AB-7EB8-4570-9A65-AF77ABD6A551}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0781B8B5-0012-41DB-BF9E-191DE9E1EB15}" name="Segments / Cars" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0781B8B5-0012-41DB-BF9E-191DE9E1EB15}" name="Segments / Cars" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="2" xr3:uid="{AC7C027D-4A1F-434A-A962-7F638DC90E4D}" name="Audi"/>
     <tableColumn id="3" xr3:uid="{C35063A0-1D76-4CE7-B172-DA0A14DFE853}" name="BMW"/>
     <tableColumn id="4" xr3:uid="{5D47B387-E003-485A-9B74-6286AFB86E53}" name="Citroën"/>
@@ -741,10 +803,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}" name="Table2" displayName="Table2" ref="A1:L63" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:L63" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{AE6F8509-6BCD-4252-BFBF-F091B627B085}" name="Brand / Detail" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}" name="Table2" displayName="Table2" ref="A1:M63" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:M63" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{AE6F8509-6BCD-4252-BFBF-F091B627B085}" name="Brand / Detail" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{8225C3C3-D29B-4D29-832A-AE7CDD214436}" name="Acceleration"/>
     <tableColumn id="3" xr3:uid="{5BC1ABE1-F747-4FF1-9DAE-C933BB65DF94}" name="Baggage Size"/>
     <tableColumn id="4" xr3:uid="{EC49E71E-E65A-4CD4-8207-1EFFA2153AA1}" name="Chassis Type"/>
@@ -756,8 +818,23 @@
     <tableColumn id="10" xr3:uid="{48AD2499-694D-4229-A06D-9F13376A798E}" name="Ncap Results"/>
     <tableColumn id="11" xr3:uid="{6148C0D3-952D-4C6E-ADA6-F4C04123FD50}" name="Price"/>
     <tableColumn id="12" xr3:uid="{E9F19F9A-A212-48FA-B854-312DC843EAD6}" name="Segment"/>
+    <tableColumn id="13" xr3:uid="{56D5E1F8-1FDB-445D-8B49-BB177E755D80}" name="Cons / Pros"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6EE3F9D9-B11B-4C7D-A428-6CE7160895A7}" name="Table3" displayName="Table3" ref="A1:E12" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E12" xr:uid="{6EE3F9D9-B11B-4C7D-A428-6CE7160895A7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{540AF3EF-D3D7-49D7-8585-971156B0EA4C}" name="Value / Criteria" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F6710048-37D8-471C-808B-68E5A2EDF978}" name="Baggage Size"/>
+    <tableColumn id="3" xr3:uid="{C41F8C34-080C-4FCE-9F57-CB9E6AEF6A64}" name="Fuel Efficiency"/>
+    <tableColumn id="4" xr3:uid="{78780D29-113F-4DC4-8EAF-1055F5C8F7A9}" name="Performance Value"/>
+    <tableColumn id="5" xr3:uid="{1D6AE2F6-B005-428C-BD89-CFAF0C4C7400}" name="Security Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1060,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B2334C-7F41-4C24-B89E-F77B0B292670}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1346,7 +1423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D1B90F-5631-4C1D-A3B2-7E4DA9393BFC}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -1599,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F9C091-4D40-4D94-8285-6B49AFA4EACD}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1614,9 +1691,10 @@
     <col min="9" max="10" width="18.88671875" customWidth="1"/>
     <col min="11" max="11" width="18.77734375" customWidth="1"/>
     <col min="12" max="12" width="18.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>81</v>
       </c>
@@ -1653,78 +1731,81 @@
       <c r="L1" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="M1" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>97</v>
       </c>
@@ -1963,6 +2044,104 @@
       <c r="A63" s="5" t="s">
         <v>144</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B4B782-9590-4698-A579-9B2671020795}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="5" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmu\Documents\Projects\Which Car\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7709CC2B-9312-441E-83F3-F2B142E87678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C129B0-0B53-4230-8332-7E2BBED4DBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3B4BDF85-B6F6-4055-99A3-4008C0DAF8C5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="322">
   <si>
     <t>Audi</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Ibiza</t>
   </si>
   <si>
-    <t>A3, Q2, Q5</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>A4, A5</t>
-  </si>
-  <si>
     <t>3, 4, X3</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t>XC-40, XC-60</t>
   </si>
   <si>
-    <t>5, X5</t>
-  </si>
-  <si>
     <t>Clio, Taliant, Captur</t>
   </si>
   <si>
@@ -308,27 +299,12 @@
     <t>Audi - Q7</t>
   </si>
   <si>
-    <t>BMW - 1</t>
-  </si>
-  <si>
-    <t>BMW - 3</t>
-  </si>
-  <si>
-    <t>BMW - 4</t>
-  </si>
-  <si>
-    <t>BMW - 5</t>
-  </si>
-  <si>
     <t>BMW - X1</t>
   </si>
   <si>
     <t>BMW - X3</t>
   </si>
   <si>
-    <t>BMW - X5</t>
-  </si>
-  <si>
     <t>Citroën - C4</t>
   </si>
   <si>
@@ -494,9 +470,6 @@
     <t>C, E</t>
   </si>
   <si>
-    <t>X1, X3, X5</t>
-  </si>
-  <si>
     <t>A7, Q7</t>
   </si>
   <si>
@@ -548,9 +521,6 @@
     <t>Segment</t>
   </si>
   <si>
-    <t>Cons / Pros</t>
-  </si>
-  <si>
     <t>Performance Value</t>
   </si>
   <si>
@@ -558,6 +528,544 @@
   </si>
   <si>
     <t>Value / Criteria</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>1395 kg</t>
+  </si>
+  <si>
+    <t>380 lt</t>
+  </si>
+  <si>
+    <t>1- 1.5, 150 hp, 250 Nm
+2- 1.0, 110 hp, 200 Nm</t>
+  </si>
+  <si>
+    <t>1- 1395 kg
+2- 1355 kg</t>
+  </si>
+  <si>
+    <t>1- 8.4 sn
+2- 10.6 sn</t>
+  </si>
+  <si>
+    <t>1- 6.2 lt
+2- 5.6 lt</t>
+  </si>
+  <si>
+    <t>1- 140 g/km
+2- 128 g/km</t>
+  </si>
+  <si>
+    <t>Wheel Dimensions</t>
+  </si>
+  <si>
+    <t>225/45/17</t>
+  </si>
+  <si>
+    <t>Automatic</t>
+  </si>
+  <si>
+    <t>1- 956.385 ₺
+2- 913.957 ₺</t>
+  </si>
+  <si>
+    <t>H x W x L
+1425 x 1816 x 4343</t>
+  </si>
+  <si>
+    <t>460 lt</t>
+  </si>
+  <si>
+    <t>1575 kg</t>
+  </si>
+  <si>
+    <t>152 g/km</t>
+  </si>
+  <si>
+    <t>225/50/17</t>
+  </si>
+  <si>
+    <t>1.643.846 ₺</t>
+  </si>
+  <si>
+    <t>2.0, 265 hp, 370 Nm</t>
+  </si>
+  <si>
+    <t>1635 kg</t>
+  </si>
+  <si>
+    <t>450 lt</t>
+  </si>
+  <si>
+    <t>5.5 sn</t>
+  </si>
+  <si>
+    <t>7,5 lt</t>
+  </si>
+  <si>
+    <t>179 g/km</t>
+  </si>
+  <si>
+    <t>1645 kg</t>
+  </si>
+  <si>
+    <t>7.3 lt</t>
+  </si>
+  <si>
+    <t>1.809.754 ₺</t>
+  </si>
+  <si>
+    <t>1- 2.0, 265 hp, 370 Nm
+2- 3.0, 340 hp, 500 Nm</t>
+  </si>
+  <si>
+    <t>1- 1835 kg
+2- 1890 kg</t>
+  </si>
+  <si>
+    <t>535 lt</t>
+  </si>
+  <si>
+    <t>1- 6.2 sn
+2- 5 sn</t>
+  </si>
+  <si>
+    <t>1- 7.5 lt
+2- 8.1 lt</t>
+  </si>
+  <si>
+    <t>1- 190 g/km
+2- 203 g/km</t>
+  </si>
+  <si>
+    <t>225/55/18</t>
+  </si>
+  <si>
+    <t>1- 2.933.409 ₺
+2- 3.863.278 ₺</t>
+  </si>
+  <si>
+    <t>A4, A5, Q5</t>
+  </si>
+  <si>
+    <t>A3, Q2</t>
+  </si>
+  <si>
+    <t>1835 kg</t>
+  </si>
+  <si>
+    <t>520 lt</t>
+  </si>
+  <si>
+    <t>6.1 sn</t>
+  </si>
+  <si>
+    <t>8.5 lt</t>
+  </si>
+  <si>
+    <t>207 g/km</t>
+  </si>
+  <si>
+    <t>3.0, 340 hp, 500 Nm</t>
+  </si>
+  <si>
+    <t>2155 kg</t>
+  </si>
+  <si>
+    <t>865 lt</t>
+  </si>
+  <si>
+    <t>5.6 sn</t>
+  </si>
+  <si>
+    <t>255 g/km</t>
+  </si>
+  <si>
+    <t>10.2 lt</t>
+  </si>
+  <si>
+    <t>235/60/18</t>
+  </si>
+  <si>
+    <t>285/45/20</t>
+  </si>
+  <si>
+    <t>1.069.806 ₺</t>
+  </si>
+  <si>
+    <t>2.369.074 ₺</t>
+  </si>
+  <si>
+    <t>4.230.682 ₺</t>
+  </si>
+  <si>
+    <t>X1, X3</t>
+  </si>
+  <si>
+    <t>BMW - 1 (118i)</t>
+  </si>
+  <si>
+    <t>1.5, / 140 hp / 220 Nm</t>
+  </si>
+  <si>
+    <t>8.5 sn</t>
+  </si>
+  <si>
+    <t>5.9 lt</t>
+  </si>
+  <si>
+    <t>135 g/km</t>
+  </si>
+  <si>
+    <t>225/40/18</t>
+  </si>
+  <si>
+    <t>1.062.700 ₺</t>
+  </si>
+  <si>
+    <t>BMW - 3 (320i)</t>
+  </si>
+  <si>
+    <t>1590 kg</t>
+  </si>
+  <si>
+    <t>480 lt</t>
+  </si>
+  <si>
+    <t>1.6 / 170 hp / 250 Nm</t>
+  </si>
+  <si>
+    <t>8.1 sn</t>
+  </si>
+  <si>
+    <t>164 g/km</t>
+  </si>
+  <si>
+    <t>1.816.900 ₺</t>
+  </si>
+  <si>
+    <t>BMW - 4 (420i- 430i)</t>
+  </si>
+  <si>
+    <t>440 lt</t>
+  </si>
+  <si>
+    <t>1- 1605 kg
+2- 1620 kg</t>
+  </si>
+  <si>
+    <t>1- 1.6 / 170 hp / 250 Nm
+2- 2.0 / 260 hp / 400 Nm</t>
+  </si>
+  <si>
+    <t>225/40/19</t>
+  </si>
+  <si>
+    <t>1- 8.2 sn
+2- 5.8 sn</t>
+  </si>
+  <si>
+    <t>1- 7.4 lt
+2- 6.6 lt</t>
+  </si>
+  <si>
+    <t>1- 169 g/km
+2- 151 g/km</t>
+  </si>
+  <si>
+    <t>1- 1.875.300 ₺
+2- 2.682.100 ₺</t>
+  </si>
+  <si>
+    <t>BMW - 5 (520i - 530i)</t>
+  </si>
+  <si>
+    <t>530 lt</t>
+  </si>
+  <si>
+    <t>225/55/17</t>
+  </si>
+  <si>
+    <t>1- 1655 kg
+2- 1755 kg</t>
+  </si>
+  <si>
+    <t>1- 1.6 / 170 hp / 250 Nm
+2- 2.0 / 250 hp / 350 Nm</t>
+  </si>
+  <si>
+    <t>1- 8.3 sn
+2- 6 sn</t>
+  </si>
+  <si>
+    <t>1- 7.1 lt
+2- 7.3 lt</t>
+  </si>
+  <si>
+    <t>1- 162 g/km
+2- 166 g/km</t>
+  </si>
+  <si>
+    <t>1- 2.175.200 ₺
+2- 3.314.100 ₺</t>
+  </si>
+  <si>
+    <t>540 lt</t>
+  </si>
+  <si>
+    <t>1.5 / 130 hp / 230 Nm</t>
+  </si>
+  <si>
+    <t>9.2 sn</t>
+  </si>
+  <si>
+    <t>143 g/km</t>
+  </si>
+  <si>
+    <t>245/40/20</t>
+  </si>
+  <si>
+    <t>1.544.600 ₺</t>
+  </si>
+  <si>
+    <t>1785 kg</t>
+  </si>
+  <si>
+    <t>550 lt</t>
+  </si>
+  <si>
+    <t>9.1 sn</t>
+  </si>
+  <si>
+    <t>225/60/18</t>
+  </si>
+  <si>
+    <t>2.067.200 ₺</t>
+  </si>
+  <si>
+    <t>9.3 lt</t>
+  </si>
+  <si>
+    <t>7.0 lt</t>
+  </si>
+  <si>
+    <t>1- 1.2 / 83 hp / 120 Nm (A)
+2- 1.2 / 110 hp / 205 Nm</t>
+  </si>
+  <si>
+    <t>1- 13.3 sn
+2- 10 sn</t>
+  </si>
+  <si>
+    <t>1- 4.2 lt
+2- 4.8 lt</t>
+  </si>
+  <si>
+    <t>1490 x 1749 x 3996</t>
+  </si>
+  <si>
+    <t>300 lt</t>
+  </si>
+  <si>
+    <t>1- 96 g/km
+2- 109 g/km</t>
+  </si>
+  <si>
+    <t>1- 474.000 ₺
+2- 574.000 ₺</t>
+  </si>
+  <si>
+    <t>1- Manuel
+2- Automatic
+3- Automatic</t>
+  </si>
+  <si>
+    <t>1- 1.2 / 100 hp / 205 Nm
+2- 1.2 / 130 hp / 230 Nm
+3- 1.2 / 155 hp / 250 Nm</t>
+  </si>
+  <si>
+    <t>1- 215/65/16
+2- 215/60/17
+3- 215/60/17</t>
+  </si>
+  <si>
+    <t>1- 1209 kg
+2- 1263 kg
+3- 1271 kg</t>
+  </si>
+  <si>
+    <t>1- 12 sn
+2- 10.2 sn
+3- 9.2 sn</t>
+  </si>
+  <si>
+    <t>1- 4.6 lt
+2- 5 lt
+3- 4.9 lt</t>
+  </si>
+  <si>
+    <t>1- 108 g/km
+2- 112 g/km
+3- 116 g/km</t>
+  </si>
+  <si>
+    <t>1- 670.000 ₺
+2- 761.000 ₺
+3- 845.000 ₺</t>
+  </si>
+  <si>
+    <t>1.6 / 180 hp / 250 Nm</t>
+  </si>
+  <si>
+    <t>1567 kg</t>
+  </si>
+  <si>
+    <t>580 lt</t>
+  </si>
+  <si>
+    <t>8.2 sn</t>
+  </si>
+  <si>
+    <t>5.4 lt</t>
+  </si>
+  <si>
+    <t>123 g/km</t>
+  </si>
+  <si>
+    <t>1.098.000 ₺</t>
+  </si>
+  <si>
+    <t>1165 kg</t>
+  </si>
+  <si>
+    <t>500 lt</t>
+  </si>
+  <si>
+    <t>10 sn</t>
+  </si>
+  <si>
+    <t>5 lt</t>
+  </si>
+  <si>
+    <t>110 g/km</t>
+  </si>
+  <si>
+    <t>526.000 ₺</t>
+  </si>
+  <si>
+    <t>6.4 lt</t>
+  </si>
+  <si>
+    <t>215/65/16</t>
+  </si>
+  <si>
+    <t>1- 13.1 sn
+2- 9.7 sn</t>
+  </si>
+  <si>
+    <t>1- 1264 kg
+2- 1338 kg</t>
+  </si>
+  <si>
+    <t>1- 549.900 ₺
+2- 625.000 ₺</t>
+  </si>
+  <si>
+    <t>1- Hatchback
+2- Sedan
+3- SUV</t>
+  </si>
+  <si>
+    <t>1- 1.0 / 90 hp / 160 Nm
+2- 1.3 / 150 hp / 250 Nm</t>
+  </si>
+  <si>
+    <t>1- 452.900 ₺
+2- 402.900 ₺
+3- 464.900 ₺</t>
+  </si>
+  <si>
+    <t>1- 1.0 / 100 hp / 190 Nm
+2- 1.5 / 130 hp / 240 Nm
+3- 1.0 / 100 hp / 190 Nm</t>
+  </si>
+  <si>
+    <t>1- Manual
+2- Automatic</t>
+  </si>
+  <si>
+    <t>Automatic / Manual</t>
+  </si>
+  <si>
+    <t>1- Manual
+2- Automatic
+3- Manual</t>
+  </si>
+  <si>
+    <t>1- 11.8 sn
+2- 8.6 sn
+3- 12.2 sn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 / 125 hp / </t>
+  </si>
+  <si>
+    <t>121 g/km</t>
+  </si>
+  <si>
+    <t>5.3 lt</t>
+  </si>
+  <si>
+    <t>790.400 ₺</t>
+  </si>
+  <si>
+    <t>760.200 ₺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5 / 125 hp / </t>
+  </si>
+  <si>
+    <t>1.5 / 180 hp / 240 Nm</t>
+  </si>
+  <si>
+    <t>215/55/16</t>
+  </si>
+  <si>
+    <t>510 lt</t>
+  </si>
+  <si>
+    <t>795.500 ₺</t>
+  </si>
+  <si>
+    <t>6.7 lt</t>
+  </si>
+  <si>
+    <t>151 g/km</t>
+  </si>
+  <si>
+    <t>1389 kg</t>
+  </si>
+  <si>
+    <t>1.5 / 190 hp / 240 Nm</t>
+  </si>
+  <si>
+    <t>1669 kg</t>
+  </si>
+  <si>
+    <t>235/60/16</t>
+  </si>
+  <si>
+    <t>560 lt</t>
+  </si>
+  <si>
+    <t>162 g/km</t>
+  </si>
+  <si>
+    <t>7.1 lt</t>
   </si>
 </sst>
 </file>
@@ -617,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -632,6 +1140,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,9 +1326,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}" name="Table2" displayName="Table2" ref="A1:M63" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:M63" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}" name="Table2" displayName="Table2" ref="A1:N62" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:N62" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{AE6F8509-6BCD-4252-BFBF-F091B627B085}" name="Brand / Detail" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{8225C3C3-D29B-4D29-832A-AE7CDD214436}" name="Acceleration"/>
     <tableColumn id="3" xr3:uid="{5BC1ABE1-F747-4FF1-9DAE-C933BB65DF94}" name="Baggage Size"/>
@@ -818,17 +1341,18 @@
     <tableColumn id="10" xr3:uid="{48AD2499-694D-4229-A06D-9F13376A798E}" name="Ncap Results"/>
     <tableColumn id="11" xr3:uid="{6148C0D3-952D-4C6E-ADA6-F4C04123FD50}" name="Price"/>
     <tableColumn id="12" xr3:uid="{E9F19F9A-A212-48FA-B854-312DC843EAD6}" name="Segment"/>
-    <tableColumn id="13" xr3:uid="{56D5E1F8-1FDB-445D-8B49-BB177E755D80}" name="Cons / Pros"/>
+    <tableColumn id="13" xr3:uid="{56D5E1F8-1FDB-445D-8B49-BB177E755D80}" name="Weight"/>
+    <tableColumn id="14" xr3:uid="{37032693-75B2-48DD-B595-1785186FBDC5}" name="Wheel Dimensions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6EE3F9D9-B11B-4C7D-A428-6CE7160895A7}" name="Table3" displayName="Table3" ref="A1:E12" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6EE3F9D9-B11B-4C7D-A428-6CE7160895A7}" name="Table3" displayName="Table3" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:E12" xr:uid="{6EE3F9D9-B11B-4C7D-A428-6CE7160895A7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{540AF3EF-D3D7-49D7-8585-971156B0EA4C}" name="Value / Criteria" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{540AF3EF-D3D7-49D7-8585-971156B0EA4C}" name="Value / Criteria" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{F6710048-37D8-471C-808B-68E5A2EDF978}" name="Baggage Size"/>
     <tableColumn id="3" xr3:uid="{C41F8C34-080C-4FCE-9F57-CB9E6AEF6A64}" name="Fuel Efficiency"/>
     <tableColumn id="4" xr3:uid="{78780D29-113F-4DC4-8EAF-1055F5C8F7A9}" name="Performance Value"/>
@@ -1138,7 +1662,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,7 +1721,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="E3" s="2">
         <v>4</v>
@@ -1275,7 +1799,7 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
@@ -1289,13 +1813,13 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1322,16 +1846,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1342,7 +1866,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
@@ -1400,7 +1924,7 @@
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1424,7 +1948,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,7 +2011,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>11</v>
@@ -1542,13 +2066,13 @@
         <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O3" t="s">
         <v>63</v>
       </c>
       <c r="R3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1556,13 +2080,13 @@
         <v>57</v>
       </c>
       <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -1577,45 +2101,45 @@
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
       <c r="O4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Q4" t="s">
         <v>48</v>
       </c>
       <c r="R4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -1633,27 +2157,27 @@
         <v>508</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="R5" t="s">
         <v>51</v>
       </c>
       <c r="S5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>143</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M6" s="2">
         <v>5008</v>
@@ -1676,373 +2200,1058 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F9C091-4D40-4D94-8285-6B49AFA4EACD}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
     <col min="2" max="4" width="18.77734375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="8" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" customWidth="1"/>
     <col min="9" max="10" width="18.88671875" customWidth="1"/>
     <col min="11" max="11" width="18.77734375" customWidth="1"/>
     <col min="12" max="12" width="18.88671875" customWidth="1"/>
     <col min="13" max="13" width="18.77734375" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="10">
+        <v>5</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
+        <v>182</v>
+      </c>
+      <c r="N4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="s">
+        <v>200</v>
+      </c>
+      <c r="N7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" t="s">
+        <v>206</v>
+      </c>
+      <c r="N8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" t="s">
+        <v>223</v>
+      </c>
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" t="s">
+        <v>188</v>
+      </c>
+      <c r="I10" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" t="s">
+        <v>230</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" t="s">
+        <v>261</v>
+      </c>
+      <c r="I13" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" t="s">
+        <v>254</v>
+      </c>
+      <c r="L13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" t="s">
+        <v>177</v>
+      </c>
+      <c r="N13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" t="s">
+        <v>260</v>
+      </c>
+      <c r="I14" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" t="s">
+        <v>259</v>
+      </c>
+      <c r="L14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" t="s">
+        <v>255</v>
+      </c>
+      <c r="N14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="D16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="B17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G17" t="s">
+        <v>277</v>
+      </c>
+      <c r="H17" t="s">
+        <v>281</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" t="s">
+        <v>283</v>
+      </c>
+      <c r="L17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="B18" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>288</v>
+      </c>
+      <c r="G18" t="s">
+        <v>277</v>
+      </c>
+      <c r="H18" t="s">
+        <v>287</v>
+      </c>
+      <c r="I18" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="B19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="B21" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G22" t="s">
+        <v>303</v>
+      </c>
+      <c r="H22" t="s">
+        <v>305</v>
+      </c>
+      <c r="I22" t="s">
+        <v>300</v>
+      </c>
+      <c r="K22" t="s">
+        <v>306</v>
+      </c>
+      <c r="L22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>308</v>
+      </c>
+      <c r="I23" t="s">
+        <v>300</v>
+      </c>
+      <c r="K23" t="s">
+        <v>307</v>
+      </c>
+      <c r="L23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="B24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>314</v>
+      </c>
+      <c r="G24" t="s">
+        <v>309</v>
+      </c>
+      <c r="H24" t="s">
+        <v>313</v>
+      </c>
+      <c r="I24" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" t="s">
+        <v>312</v>
+      </c>
+      <c r="L24" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" t="s">
+        <v>315</v>
+      </c>
+      <c r="N24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="B25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>320</v>
+      </c>
+      <c r="G25" t="s">
+        <v>316</v>
+      </c>
+      <c r="H25" t="s">
+        <v>321</v>
+      </c>
+      <c r="I25" t="s">
+        <v>173</v>
+      </c>
+      <c r="L25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" t="s">
+        <v>317</v>
+      </c>
+      <c r="N25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2070,19 +3279,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmu\Documents\Projects\Which Car\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C129B0-0B53-4230-8332-7E2BBED4DBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23974740-D0EA-47F9-AE20-6F965446BB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3B4BDF85-B6F6-4055-99A3-4008C0DAF8C5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="382">
   <si>
     <t>Audi</t>
   </si>
@@ -1066,6 +1066,212 @@
   </si>
   <si>
     <t>7.1 lt</t>
+  </si>
+  <si>
+    <t>Hyundai - Elantra</t>
+  </si>
+  <si>
+    <t>1.3 / 160 hp / 250 Nm</t>
+  </si>
+  <si>
+    <t>355 lt</t>
+  </si>
+  <si>
+    <t>1- 8 sn
+2- 3.9 sn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- 5.6 lt
+2- </t>
+  </si>
+  <si>
+    <t>1- 205/60/16
+2- 245/35/19</t>
+  </si>
+  <si>
+    <t>1- 1375 kg
+2- 1660 kg</t>
+  </si>
+  <si>
+    <t>1- 1.027.600 ₺
+2- 2.783.700 ₺</t>
+  </si>
+  <si>
+    <t>455 lt</t>
+  </si>
+  <si>
+    <t>1- 7.1 sn
+2- 4.6 sn</t>
+  </si>
+  <si>
+    <t>1- 225/50/17
+2- 245/45/18</t>
+  </si>
+  <si>
+    <t>1- 1705 kg
+2- 1840 kg</t>
+  </si>
+  <si>
+    <t>1- 1.850.100 ₺
+2- 3.668.200 ₺</t>
+  </si>
+  <si>
+    <t>3.4 sn</t>
+  </si>
+  <si>
+    <t>2010 kg</t>
+  </si>
+  <si>
+    <t>7.810.400 ₺</t>
+  </si>
+  <si>
+    <t>4.0 / 610 hp / 850 Nm</t>
+  </si>
+  <si>
+    <t>1- 1.5 / 200 hp / 300 Nm
+2- 2.0 / 400 hp / 500 Nm</t>
+  </si>
+  <si>
+    <t>1- 1.3 / 160 hp / 250 Nm
+2- 2.0 / 420 hp / 500 Nm</t>
+  </si>
+  <si>
+    <t>1- 8.7 sn</t>
+  </si>
+  <si>
+    <t>265/35/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- 1.3 / 160 hp / 250 Nm
+2- 2.0 / 420 hp / 500 Nm </t>
+  </si>
+  <si>
+    <t>1- 8.7 sn
+2- 4 sn</t>
+  </si>
+  <si>
+    <t>1- 205/55/17
+2- 255/35/19</t>
+  </si>
+  <si>
+    <t>1- 1515 kg
+2- 1695 kg</t>
+  </si>
+  <si>
+    <t>1- 1.394.100 ₺
+2- 3.061.699 ₺</t>
+  </si>
+  <si>
+    <t>215/65/17</t>
+  </si>
+  <si>
+    <t>1500 kg</t>
+  </si>
+  <si>
+    <t>435 lt</t>
+  </si>
+  <si>
+    <t>1.435.100 ₺</t>
+  </si>
+  <si>
+    <t>1.0 / 90 Hp / 140 Nm</t>
+  </si>
+  <si>
+    <t>13 sn</t>
+  </si>
+  <si>
+    <t>4.7 lt</t>
+  </si>
+  <si>
+    <t>140 g/km</t>
+  </si>
+  <si>
+    <t>195/55/16</t>
+  </si>
+  <si>
+    <t>1080 kg</t>
+  </si>
+  <si>
+    <t>1.0 / 115 hp / 200 Nm</t>
+  </si>
+  <si>
+    <t>11.8 sn</t>
+  </si>
+  <si>
+    <t>1187 kg</t>
+  </si>
+  <si>
+    <t>5.2 lt</t>
+  </si>
+  <si>
+    <t>119 g/km</t>
+  </si>
+  <si>
+    <t>215/60/17</t>
+  </si>
+  <si>
+    <t>422 lt</t>
+  </si>
+  <si>
+    <t>1.3 / 160 hp / 270 Nm</t>
+  </si>
+  <si>
+    <t>6.3 lt</t>
+  </si>
+  <si>
+    <t>1404 kg</t>
+  </si>
+  <si>
+    <t>499.900 ₺</t>
+  </si>
+  <si>
+    <t>1- 1.2 / 75 hp / 120 Nm (A)
+2- 1.2 / 100 hp / 205 Nm
+3- 1.2 / 130 hp / 230 Nm</t>
+  </si>
+  <si>
+    <t>1- 4.1 lt
+2- 4.3 lt
+3- 4.5 lt</t>
+  </si>
+  <si>
+    <t>1- 93 g/km
+2- 99 g/km
+3- 103 g/km</t>
+  </si>
+  <si>
+    <t>1- 13.2 sn
+2- 10.8 sn
+3- 8.7 sn</t>
+  </si>
+  <si>
+    <t>1- 1055 kg
+2- 1165 kg
+3- 1233 kg</t>
+  </si>
+  <si>
+    <t>310 lt</t>
+  </si>
+  <si>
+    <t>1.5 / 120 hp / 280 Nm</t>
+  </si>
+  <si>
+    <t>245/35/20</t>
+  </si>
+  <si>
+    <t>109 g /km</t>
+  </si>
+  <si>
+    <t>12.2 sn</t>
+  </si>
+  <si>
+    <t>1540 kg</t>
+  </si>
+  <si>
+    <t>490 lt</t>
+  </si>
+  <si>
+    <t>Sandero, Duster</t>
   </si>
 </sst>
 </file>
@@ -1326,8 +1532,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}" name="Table2" displayName="Table2" ref="A1:N62" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:N62" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}" name="Table2" displayName="Table2" ref="A1:N63" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:N63" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{AE6F8509-6BCD-4252-BFBF-F091B627B085}" name="Brand / Detail" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{8225C3C3-D29B-4D29-832A-AE7CDD214436}" name="Acceleration"/>
@@ -1662,7 +1868,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1749,7 +1955,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2200,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F9C091-4D40-4D94-8285-6B49AFA4EACD}">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3073,184 +3279,501 @@
       <c r="A26" s="5" t="s">
         <v>99</v>
       </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>101</v>
+        <v>322</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+      <c r="B30" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>104</v>
+      <c r="B31" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>338</v>
+      </c>
+      <c r="I32" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" t="s">
+        <v>337</v>
+      </c>
+      <c r="L32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" t="s">
+        <v>336</v>
+      </c>
+      <c r="N32" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="B33" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+      <c r="B34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34" t="s">
+        <v>350</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>323</v>
+      </c>
+      <c r="I34" t="s">
+        <v>173</v>
+      </c>
+      <c r="K34" t="s">
+        <v>351</v>
+      </c>
+      <c r="L34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M34" t="s">
+        <v>349</v>
+      </c>
+      <c r="N34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+      <c r="B35" t="s">
+        <v>359</v>
+      </c>
+      <c r="C35" t="s">
+        <v>364</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>362</v>
+      </c>
+      <c r="G35" t="s">
+        <v>358</v>
+      </c>
+      <c r="H35" t="s">
+        <v>361</v>
+      </c>
+      <c r="I35" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" t="s">
+        <v>56</v>
+      </c>
+      <c r="M35" t="s">
+        <v>360</v>
+      </c>
+      <c r="N35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
+      <c r="B36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C36" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>355</v>
+      </c>
+      <c r="G36" t="s">
+        <v>352</v>
+      </c>
+      <c r="H36" t="s">
+        <v>354</v>
+      </c>
+      <c r="I36" t="s">
+        <v>173</v>
+      </c>
+      <c r="L36" t="s">
+        <v>56</v>
+      </c>
+      <c r="M36" t="s">
+        <v>357</v>
+      </c>
+      <c r="N36" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="B37" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>252</v>
+      </c>
+      <c r="G37" t="s">
+        <v>365</v>
+      </c>
+      <c r="H37" t="s">
+        <v>366</v>
+      </c>
+      <c r="I37" t="s">
+        <v>300</v>
+      </c>
+      <c r="L37" t="s">
+        <v>57</v>
+      </c>
+      <c r="M37" t="s">
+        <v>367</v>
+      </c>
+      <c r="N37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+      <c r="B38" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K38" t="s">
+        <v>368</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+      <c r="B39" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" t="s">
+        <v>380</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>377</v>
+      </c>
+      <c r="G39" t="s">
+        <v>375</v>
+      </c>
+      <c r="H39" t="s">
+        <v>305</v>
+      </c>
+      <c r="I39" t="s">
+        <v>173</v>
+      </c>
+      <c r="L39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M39" t="s">
+        <v>379</v>
+      </c>
+      <c r="N39" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+    <row r="42" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+    <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
+    <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
+    <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
+    <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
         <v>136</v>
       </c>
     </row>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmu\Documents\Projects\Which Car\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23974740-D0EA-47F9-AE20-6F965446BB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06AA383-CA61-418A-9387-33392D852A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3B4BDF85-B6F6-4055-99A3-4008C0DAF8C5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="499">
   <si>
     <t>Audi</t>
   </si>
@@ -456,12 +456,6 @@
   </si>
   <si>
     <t>Elantra</t>
-  </si>
-  <si>
-    <t>2008, 3008</t>
-  </si>
-  <si>
-    <t>508, 5008</t>
   </si>
   <si>
     <t>CLA</t>
@@ -876,11 +870,6 @@
   <si>
     <t>1- 474.000 ₺
 2- 574.000 ₺</t>
-  </si>
-  <si>
-    <t>1- Manuel
-2- Automatic
-3- Automatic</t>
   </si>
   <si>
     <t>1- 1.2 / 100 hp / 205 Nm
@@ -1210,9 +1199,6 @@
     <t>215/60/17</t>
   </si>
   <si>
-    <t>422 lt</t>
-  </si>
-  <si>
     <t>1.3 / 160 hp / 270 Nm</t>
   </si>
   <si>
@@ -1272,6 +1258,458 @@
   </si>
   <si>
     <t>Sandero, Duster</t>
+  </si>
+  <si>
+    <t>1- Manual
+2- Automatic
+3- Automatic</t>
+  </si>
+  <si>
+    <t>2008, 3008, 5008</t>
+  </si>
+  <si>
+    <t>205/45/17</t>
+  </si>
+  <si>
+    <t>1- 980 kg
+2- 1090 kg
+3- 1158 kg</t>
+  </si>
+  <si>
+    <t>1.2 / 130 hp / 230 Nm</t>
+  </si>
+  <si>
+    <t>1291 kg</t>
+  </si>
+  <si>
+    <t>410 lt</t>
+  </si>
+  <si>
+    <t>9.7 sn</t>
+  </si>
+  <si>
+    <t>5.8 lt</t>
+  </si>
+  <si>
+    <t>130 g/km</t>
+  </si>
+  <si>
+    <t>1- 1.6 / 180 hp / 250 Nm
+2- 1.6 / 225 hp / 300 Nm</t>
+  </si>
+  <si>
+    <t>235/45/18</t>
+  </si>
+  <si>
+    <t>1420 kg</t>
+  </si>
+  <si>
+    <t>1- 7.9 sn
+2- 7.3 sn</t>
+  </si>
+  <si>
+    <t>1- 112 g/km
+2- 124 g/km</t>
+  </si>
+  <si>
+    <t>1- 4.9 lt
+2- 5.4 lt</t>
+  </si>
+  <si>
+    <t>1- 1.2 / 100 hp / 205 Nm
+2- 1.2 / 130 hp / 230 Nm</t>
+  </si>
+  <si>
+    <t>1- 1192 kg
+2- 1.205 kg</t>
+  </si>
+  <si>
+    <t>420 lt</t>
+  </si>
+  <si>
+    <t>1- 10.9 sn
+2- 9.1 sn</t>
+  </si>
+  <si>
+    <t>1- 4.6 lt
+2- 4.8 lt</t>
+  </si>
+  <si>
+    <t>1- 105 g/km
+2- 109 g/km</t>
+  </si>
+  <si>
+    <t>1- 1.2 / 130 hp / 230 Nm
+2- 1.6 / 180 hp / 250 Nm</t>
+  </si>
+  <si>
+    <t>1- 1320 kg
+2- 1429 kg</t>
+  </si>
+  <si>
+    <t>1- 9.7 sn
+2- 8 sn</t>
+  </si>
+  <si>
+    <t>122 g/km</t>
+  </si>
+  <si>
+    <t>1521 kg</t>
+  </si>
+  <si>
+    <t>780 lt</t>
+  </si>
+  <si>
+    <t>8.3 sn</t>
+  </si>
+  <si>
+    <t>5.5 lt</t>
+  </si>
+  <si>
+    <t>126 g/km</t>
+  </si>
+  <si>
+    <t>1.3 / 140 hp / 260 Nm</t>
+  </si>
+  <si>
+    <t>1353 kg</t>
+  </si>
+  <si>
+    <t>1- 1.0 / 65 hp / 95 Nm
+2- 1.0 / 90 hp / 140 Nm</t>
+  </si>
+  <si>
+    <t>1- 113 g/km
+2- 116 g/km</t>
+  </si>
+  <si>
+    <t>1- 5.0 lt
+2- 5.1 lt</t>
+  </si>
+  <si>
+    <t>1- 17.1 sn
+2- 12. 4 sn</t>
+  </si>
+  <si>
+    <t>185/65/15</t>
+  </si>
+  <si>
+    <t>1- 1103 kg
+2- 1184 kg</t>
+  </si>
+  <si>
+    <t>390 lt</t>
+  </si>
+  <si>
+    <t>9.3 sn</t>
+  </si>
+  <si>
+    <t>225/45/19</t>
+  </si>
+  <si>
+    <t>1416 kg</t>
+  </si>
+  <si>
+    <t>1.3 / 140 hp / 240 Nm</t>
+  </si>
+  <si>
+    <t>125 g/km</t>
+  </si>
+  <si>
+    <t>205/55/16</t>
+  </si>
+  <si>
+    <t>1367kg</t>
+  </si>
+  <si>
+    <t>1- 127 g/km
+2- 138 g/km</t>
+  </si>
+  <si>
+    <t>1- 5.6 lt
+2- 6.1 lt</t>
+  </si>
+  <si>
+    <t>1- 17 sn
+2- 13.9 sn</t>
+  </si>
+  <si>
+    <t>1- 1109 kg
+2- 1170 kg</t>
+  </si>
+  <si>
+    <t>630 lt</t>
+  </si>
+  <si>
+    <t>732.000 ₺</t>
+  </si>
+  <si>
+    <t>1- 373.000 ₺
+2- 458.000 ₺</t>
+  </si>
+  <si>
+    <t>929.000 ₺</t>
+  </si>
+  <si>
+    <t>542.000 ₺</t>
+  </si>
+  <si>
+    <t>1- 372.000 ₺
+2- 466.000 ₺</t>
+  </si>
+  <si>
+    <t>1- 1.0 / 80 Hp / 100 Nm
+2- 1.0 / 110 Hp / 200 Nm
+3- 1.5 / 150 Hp / 250 Nm</t>
+  </si>
+  <si>
+    <t>1- 15.3 sn
+2- 10.3 sn
+3- 8.1 sn</t>
+  </si>
+  <si>
+    <t>1- 4.8 lt
+2- 4.8 lt
+3- 5.0 lt</t>
+  </si>
+  <si>
+    <t>1- 109 g/km
+2- 110 g/km
+3- 114 g/km</t>
+  </si>
+  <si>
+    <t>215/45/17</t>
+  </si>
+  <si>
+    <t>1- 1036 kg
+2- 1104 kg
+3- 1156 kg</t>
+  </si>
+  <si>
+    <t>1- 1.0 / 110 Hp / 200 Nm
+2- 1.5 / 150 hp / 250 Nm</t>
+  </si>
+  <si>
+    <t>1- 10.6 sn
+2- 8.5 sn</t>
+  </si>
+  <si>
+    <t>1- 4.4 lt
+2- 4.8 lt</t>
+  </si>
+  <si>
+    <t>1- 101 g/km
+2- 110 g/km</t>
+  </si>
+  <si>
+    <t>1- 1260 kg
+2- 1289 kg</t>
+  </si>
+  <si>
+    <t>1- 435.750 ₺
+2- 562.00 ₺
+3- 690.000 ₺</t>
+  </si>
+  <si>
+    <t>1- 760.000 ₺
+2- 860.000 ₺</t>
+  </si>
+  <si>
+    <t>1- 10.5 sn
+2- 8.5 sn
+3- 7.1 sn</t>
+  </si>
+  <si>
+    <t>1- 5.1 lt
+2- 5.3 lt
+3- 5.6 lt</t>
+  </si>
+  <si>
+    <t>1- 116 g/km
+2- 121 g/km
+3- 146 g/km</t>
+  </si>
+  <si>
+    <t>600 lt</t>
+  </si>
+  <si>
+    <t>1- 1274 kg
+2- 1279 kg
+3- 1509 kg</t>
+  </si>
+  <si>
+    <t>1- 1.0 / 110 Hp / 200 Nm
+2- 1.5 / 150 hp / 250 Nm
+3- 2.0 / 200 hp / 400 Nm</t>
+  </si>
+  <si>
+    <t>1- 9.2 sn
+2- 7.2 sn</t>
+  </si>
+  <si>
+    <t>1- 6.6 lt
+2- 6.1 lt</t>
+  </si>
+  <si>
+    <t>1- 149 g/km
+2- 159 g/km</t>
+  </si>
+  <si>
+    <t>235/40/19</t>
+  </si>
+  <si>
+    <t>1- 1377 kg
+2- 1618 kg</t>
+  </si>
+  <si>
+    <t>1- 819.900 ₺
+2- 871.900 ₺
+3- 1.869.900 ₺</t>
+  </si>
+  <si>
+    <t>1- 994.900 ₺
+2- 2.019.900 ₺</t>
+  </si>
+  <si>
+    <t>1- 3.5 lt
+2- 3.5 lt
+3- 5 lt</t>
+  </si>
+  <si>
+    <t>1- 80 g/km
+2- 80 g/km
+3- 115 g/km</t>
+  </si>
+  <si>
+    <t>1- 853.300 ₺
+2- 917.800 ₺
+3- 1.034.800 ₺</t>
+  </si>
+  <si>
+    <t>1- 1190 kg
+2- 1285 kg
+3- 1380 kg</t>
+  </si>
+  <si>
+    <t>1- 10.9 sn
+2- 11 sn
+3- 10 sn</t>
+  </si>
+  <si>
+    <t>1- 205/55/16
+2- 205/55/16
+3- 215/60/17</t>
+  </si>
+  <si>
+    <t>1- 1.8 / 120 hp / 140 Nm
+2- 1.8 / 120 hp / 140 Nm
+3- 1.8 / 140 hp / 140 Nm</t>
+  </si>
+  <si>
+    <t>1- 1.0 / 110 hp / 200 Nm
+2- 1.5 / 150 hp / 250 Nm</t>
+  </si>
+  <si>
+    <t>1- Automatic / Manual
+2- Automatic</t>
+  </si>
+  <si>
+    <t>1- 380 lt
+2- 470 lt
+3- 400 lt</t>
+  </si>
+  <si>
+    <t>1- 10.2 sn
+2- 8.5 sn</t>
+  </si>
+  <si>
+    <t>1- 4.0 lt
+2- 4.5 lt</t>
+  </si>
+  <si>
+    <t>1- 94 g/km
+2- 102 g/km</t>
+  </si>
+  <si>
+    <t>1- 1302 kg
+2- 1365 kg</t>
+  </si>
+  <si>
+    <t>1- 1.5 / 150 hp / 250 Nm
+2- 2.0 / 200 hp / 400 Nm</t>
+  </si>
+  <si>
+    <t>1.5 / 150 hp / 250 Nm</t>
+  </si>
+  <si>
+    <t>1436 kg</t>
+  </si>
+  <si>
+    <t>585 lt</t>
+  </si>
+  <si>
+    <t>8.7 sn</t>
+  </si>
+  <si>
+    <t>5.1 lt</t>
+  </si>
+  <si>
+    <t>116 g/km</t>
+  </si>
+  <si>
+    <t>1- 1.0 / 80 hp / 90 Nm
+2- 1.0 / 95 hp / 175 Nm</t>
+  </si>
+  <si>
+    <t>1- Manual
+2- Automatic / Manual</t>
+  </si>
+  <si>
+    <t>1- 1142 kg
+2- 1168 kg</t>
+  </si>
+  <si>
+    <t>350 lt</t>
+  </si>
+  <si>
+    <t>1- 15.5 sn
+2- 10.8 sn</t>
+  </si>
+  <si>
+    <t>4.5 lt</t>
+  </si>
+  <si>
+    <t>102 g/km</t>
+  </si>
+  <si>
+    <t>445 lt</t>
+  </si>
+  <si>
+    <t>1358 kg</t>
+  </si>
+  <si>
+    <t>4.9 lt</t>
+  </si>
+  <si>
+    <t>615 lt</t>
+  </si>
+  <si>
+    <t>1541 kg</t>
+  </si>
+  <si>
+    <t>5.6 lt</t>
+  </si>
+  <si>
+    <t>128 g/km</t>
+  </si>
+  <si>
+    <t>2.292.563 ₺</t>
+  </si>
+  <si>
+    <t>1.600.349 ₺</t>
+  </si>
+  <si>
+    <t>2.355.664 ₺</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1362,6 +1800,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1867,17 +2307,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B2334C-7F41-4C24-B89E-F77B0B292670}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1927,7 +2365,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E3" s="2">
         <v>4</v>
@@ -1955,7 +2393,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2019,13 +2457,13 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2057,11 +2495,11 @@
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>140</v>
+      <c r="C13" s="2">
+        <v>508</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2153,13 +2591,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D1B90F-5631-4C1D-A3B2-7E4DA9393BFC}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="K1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J19" sqref="J18:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -2286,10 +2724,10 @@
         <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
@@ -2307,7 +2745,7 @@
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
         <v>137</v>
@@ -2322,10 +2760,10 @@
         <v>67</v>
       </c>
       <c r="O4" t="s">
+        <v>144</v>
+      </c>
+      <c r="P4" t="s">
         <v>146</v>
-      </c>
-      <c r="P4" t="s">
-        <v>148</v>
       </c>
       <c r="Q4" t="s">
         <v>48</v>
@@ -2342,7 +2780,7 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -2363,7 +2801,7 @@
         <v>508</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R5" t="s">
         <v>51</v>
@@ -2377,7 +2815,7 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -2408,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F9C091-4D40-4D94-8285-6B49AFA4EACD}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2420,7 +2858,8 @@
     <col min="6" max="6" width="18.77734375" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="18.77734375" customWidth="1"/>
-    <col min="9" max="10" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
     <col min="11" max="11" width="18.77734375" customWidth="1"/>
     <col min="12" max="12" width="18.88671875" customWidth="1"/>
     <col min="13" max="13" width="18.77734375" customWidth="1"/>
@@ -2432,43 +2871,43 @@
         <v>78</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2476,43 +2915,43 @@
         <v>79</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J2" s="10">
         <v>5</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>57</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -2520,37 +2959,37 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" t="s">
         <v>178</v>
-      </c>
-      <c r="G3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" t="s">
-        <v>188</v>
-      </c>
-      <c r="I3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K3" t="s">
-        <v>180</v>
       </c>
       <c r="L3" t="s">
         <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -2558,37 +2997,37 @@
         <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L4" t="s">
         <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2596,37 +3035,37 @@
         <v>82</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="L5" t="s">
         <v>70</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -2637,7 +3076,7 @@
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L6" t="s">
         <v>57</v>
@@ -2648,37 +3087,37 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L7" t="s">
         <v>69</v>
       </c>
       <c r="M7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -2686,186 +3125,186 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L8" t="s">
         <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" t="s">
         <v>217</v>
       </c>
-      <c r="B9" t="s">
-        <v>219</v>
-      </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" t="s">
         <v>221</v>
-      </c>
-      <c r="G9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H9" t="s">
-        <v>220</v>
-      </c>
-      <c r="I9" t="s">
-        <v>173</v>
-      </c>
-      <c r="K9" t="s">
-        <v>223</v>
       </c>
       <c r="L9" t="s">
         <v>57</v>
       </c>
       <c r="M9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10" t="s">
         <v>224</v>
-      </c>
-      <c r="B10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" t="s">
-        <v>226</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L10" t="s">
         <v>69</v>
       </c>
       <c r="M10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>69</v>
       </c>
       <c r="M11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="N11" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>70</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -2873,37 +3312,37 @@
         <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" t="s">
+        <v>248</v>
+      </c>
+      <c r="H13" t="s">
+        <v>259</v>
+      </c>
+      <c r="I13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" t="s">
         <v>252</v>
-      </c>
-      <c r="G13" t="s">
-        <v>250</v>
-      </c>
-      <c r="H13" t="s">
-        <v>261</v>
-      </c>
-      <c r="I13" t="s">
-        <v>173</v>
-      </c>
-      <c r="K13" t="s">
-        <v>254</v>
       </c>
       <c r="L13" t="s">
         <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -2911,34 +3350,34 @@
         <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L14" t="s">
         <v>69</v>
       </c>
       <c r="M14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2946,31 +3385,31 @@
         <v>89</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="G15" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="I15" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>56</v>
@@ -2981,37 +3420,37 @@
         <v>88</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>269</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3019,34 +3458,34 @@
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L17" t="s">
         <v>69</v>
       </c>
       <c r="M17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3054,34 +3493,34 @@
         <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L18" t="s">
         <v>56</v>
       </c>
       <c r="M18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -3089,37 +3528,37 @@
         <v>92</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>57</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3138,19 +3577,19 @@
         <v>94</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="K21" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>57</v>
@@ -3164,19 +3603,19 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G22" t="s">
+        <v>300</v>
+      </c>
+      <c r="H22" t="s">
+        <v>302</v>
+      </c>
+      <c r="I22" t="s">
+        <v>297</v>
+      </c>
+      <c r="K22" t="s">
         <v>303</v>
-      </c>
-      <c r="H22" t="s">
-        <v>305</v>
-      </c>
-      <c r="I22" t="s">
-        <v>300</v>
-      </c>
-      <c r="K22" t="s">
-        <v>306</v>
       </c>
       <c r="L22" t="s">
         <v>56</v>
@@ -3190,13 +3629,13 @@
         <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L23" t="s">
         <v>57</v>
@@ -3207,37 +3646,37 @@
         <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G24" t="s">
+        <v>306</v>
+      </c>
+      <c r="H24" t="s">
+        <v>310</v>
+      </c>
+      <c r="I24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" t="s">
         <v>309</v>
-      </c>
-      <c r="H24" t="s">
-        <v>313</v>
-      </c>
-      <c r="I24" t="s">
-        <v>173</v>
-      </c>
-      <c r="K24" t="s">
-        <v>312</v>
       </c>
       <c r="L24" t="s">
         <v>57</v>
       </c>
       <c r="M24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N24" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3245,34 +3684,34 @@
         <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C25" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G25" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s">
         <v>69</v>
       </c>
       <c r="M25" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N25" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3299,7 +3738,7 @@
     </row>
     <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -3324,34 +3763,34 @@
         <v>102</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H30" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>57</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -3359,31 +3798,31 @@
         <v>103</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>69</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3391,31 +3830,31 @@
         <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K32" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L32" t="s">
         <v>70</v>
       </c>
       <c r="M32" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N32" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -3423,31 +3862,31 @@
         <v>105</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>57</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3455,31 +3894,31 @@
         <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C34" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K34" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L34" t="s">
         <v>57</v>
       </c>
       <c r="M34" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="N34" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3487,34 +3926,34 @@
         <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C35" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G35" t="s">
+        <v>355</v>
+      </c>
+      <c r="H35" t="s">
         <v>358</v>
       </c>
-      <c r="H35" t="s">
-        <v>361</v>
-      </c>
       <c r="I35" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s">
         <v>56</v>
       </c>
       <c r="M35" t="s">
+        <v>357</v>
+      </c>
+      <c r="N35" t="s">
         <v>360</v>
-      </c>
-      <c r="N35" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3522,34 +3961,34 @@
         <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G36" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H36" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L36" t="s">
         <v>56</v>
       </c>
       <c r="M36" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N36" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3557,34 +3996,34 @@
         <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G37" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H37" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s">
         <v>57</v>
       </c>
       <c r="M37" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N37" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -3592,34 +4031,34 @@
         <v>110</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>269</v>
+        <v>378</v>
       </c>
       <c r="K38" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>56</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3627,154 +4066,827 @@
         <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C39" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G39" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s">
         <v>69</v>
       </c>
       <c r="M39" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N39" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>117</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+      <c r="B41" t="s">
+        <v>385</v>
+      </c>
+      <c r="C41" t="s">
+        <v>384</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>387</v>
+      </c>
+      <c r="G41" t="s">
+        <v>382</v>
+      </c>
+      <c r="H41" t="s">
+        <v>386</v>
+      </c>
+      <c r="I41" t="s">
+        <v>171</v>
+      </c>
+      <c r="L41" t="s">
+        <v>57</v>
+      </c>
+      <c r="M41" t="s">
+        <v>383</v>
+      </c>
+      <c r="N41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+      <c r="B42" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+      <c r="B43" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
         <v>113</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>112</v>
       </c>
+      <c r="B45" t="s">
+        <v>406</v>
+      </c>
+      <c r="C45" t="s">
+        <v>405</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>408</v>
+      </c>
+      <c r="G45" t="s">
+        <v>274</v>
+      </c>
+      <c r="H45" t="s">
+        <v>407</v>
+      </c>
+      <c r="I45" t="s">
+        <v>171</v>
+      </c>
+      <c r="L45" t="s">
+        <v>70</v>
+      </c>
+      <c r="M45" t="s">
+        <v>404</v>
+      </c>
+      <c r="N45" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
+      <c r="B46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" t="s">
+        <v>396</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>403</v>
+      </c>
+      <c r="G46" t="s">
+        <v>409</v>
+      </c>
+      <c r="H46" t="s">
+        <v>278</v>
+      </c>
+      <c r="I46" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" t="s">
+        <v>430</v>
+      </c>
+      <c r="L46" t="s">
+        <v>56</v>
+      </c>
+      <c r="M46" t="s">
+        <v>410</v>
+      </c>
+      <c r="N46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>120</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>418</v>
+      </c>
+      <c r="C48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>408</v>
+      </c>
+      <c r="G48" t="s">
+        <v>361</v>
+      </c>
+      <c r="H48" t="s">
+        <v>407</v>
+      </c>
+      <c r="I48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K48" t="s">
+        <v>432</v>
+      </c>
+      <c r="L48" t="s">
+        <v>57</v>
+      </c>
+      <c r="M48" t="s">
+        <v>420</v>
+      </c>
+      <c r="N48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
+      <c r="C49" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>422</v>
+      </c>
+      <c r="G49" t="s">
+        <v>421</v>
+      </c>
+      <c r="H49" t="s">
+        <v>407</v>
+      </c>
+      <c r="I49" t="s">
+        <v>297</v>
+      </c>
+      <c r="K49" t="s">
+        <v>433</v>
+      </c>
+      <c r="L49" t="s">
+        <v>57</v>
+      </c>
+      <c r="M49" t="s">
+        <v>424</v>
+      </c>
+      <c r="N49" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
+      <c r="B50" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
+      <c r="B51" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
+      <c r="B52" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
+      <c r="B53" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
+      <c r="B54" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
+      <c r="B55" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
+      <c r="B56" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="13" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
+      <c r="B57" t="s">
+        <v>479</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>481</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H57" t="s">
+        <v>480</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="L57" t="s">
+        <v>69</v>
+      </c>
+      <c r="M57" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B58" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>406</v>
+      </c>
+      <c r="C59" t="s">
+        <v>489</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>285</v>
+      </c>
+      <c r="G59" t="s">
+        <v>476</v>
+      </c>
+      <c r="H59" t="s">
+        <v>491</v>
+      </c>
+      <c r="I59" t="s">
+        <v>171</v>
+      </c>
+      <c r="L59" t="s">
+        <v>56</v>
+      </c>
+      <c r="M59" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" t="s">
+        <v>492</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>495</v>
+      </c>
+      <c r="G60" t="s">
+        <v>476</v>
+      </c>
+      <c r="H60" t="s">
+        <v>494</v>
+      </c>
+      <c r="I60" t="s">
+        <v>171</v>
+      </c>
+      <c r="L60" t="s">
+        <v>57</v>
+      </c>
+      <c r="M60" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>171</v>
+      </c>
+      <c r="K61" t="s">
+        <v>496</v>
+      </c>
+      <c r="L61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
+        <v>171</v>
+      </c>
+      <c r="K62" t="s">
+        <v>497</v>
+      </c>
+      <c r="L62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>136</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s">
+        <v>171</v>
+      </c>
+      <c r="K63" t="s">
+        <v>498</v>
+      </c>
+      <c r="L63" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3802,19 +4914,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmu\Documents\Projects\Which Car\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06AA383-CA61-418A-9387-33392D852A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12447F43-4F2F-4F2E-9023-2E5B7E55323A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3B4BDF85-B6F6-4055-99A3-4008C0DAF8C5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="527">
   <si>
     <t>Audi</t>
   </si>
@@ -531,10 +531,6 @@
   </si>
   <si>
     <t>380 lt</t>
-  </si>
-  <si>
-    <t>1- 1.5, 150 hp, 250 Nm
-2- 1.0, 110 hp, 200 Nm</t>
   </si>
   <si>
     <t>1- 1395 kg
@@ -566,10 +562,6 @@
 2- 913.957 ₺</t>
   </si>
   <si>
-    <t>H x W x L
-1425 x 1816 x 4343</t>
-  </si>
-  <si>
     <t>460 lt</t>
   </si>
   <si>
@@ -585,9 +577,6 @@
     <t>1.643.846 ₺</t>
   </si>
   <si>
-    <t>2.0, 265 hp, 370 Nm</t>
-  </si>
-  <si>
     <t>1635 kg</t>
   </si>
   <si>
@@ -597,9 +586,6 @@
     <t>5.5 sn</t>
   </si>
   <si>
-    <t>7,5 lt</t>
-  </si>
-  <si>
     <t>179 g/km</t>
   </si>
   <si>
@@ -610,10 +596,6 @@
   </si>
   <si>
     <t>1.809.754 ₺</t>
-  </si>
-  <si>
-    <t>1- 2.0, 265 hp, 370 Nm
-2- 3.0, 340 hp, 500 Nm</t>
   </si>
   <si>
     <t>1- 1835 kg
@@ -663,9 +645,6 @@
     <t>207 g/km</t>
   </si>
   <si>
-    <t>3.0, 340 hp, 500 Nm</t>
-  </si>
-  <si>
     <t>2155 kg</t>
   </si>
   <si>
@@ -856,9 +835,6 @@
   <si>
     <t>1- 4.2 lt
 2- 4.8 lt</t>
-  </si>
-  <si>
-    <t>1490 x 1749 x 3996</t>
   </si>
   <si>
     <t>300 lt</t>
@@ -1000,9 +976,6 @@
 3- 12.2 sn</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0 / 125 hp / </t>
-  </si>
-  <si>
     <t>121 g/km</t>
   </si>
   <si>
@@ -1013,9 +986,6 @@
   </si>
   <si>
     <t>760.200 ₺</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5 / 125 hp / </t>
   </si>
   <si>
     <t>1.5 / 180 hp / 240 Nm</t>
@@ -1068,10 +1038,6 @@
   <si>
     <t>1- 8 sn
 2- 3.9 sn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- 5.6 lt
-2- </t>
   </si>
   <si>
     <t>1- 205/60/16
@@ -1710,6 +1676,145 @@
   </si>
   <si>
     <t>2.355.664 ₺</t>
+  </si>
+  <si>
+    <t>1- 8.6 sn</t>
+  </si>
+  <si>
+    <t>405 lt</t>
+  </si>
+  <si>
+    <t>3.5 / 150 hp / 250 Nm</t>
+  </si>
+  <si>
+    <t>146 g/km</t>
+  </si>
+  <si>
+    <t>1290 kg</t>
+  </si>
+  <si>
+    <t>1- Hatchback
+2- SUV</t>
+  </si>
+  <si>
+    <t>1- 1.0 / 90 hp / 140 Nm
+2- 1.0 / 90 hp / 140 Nm</t>
+  </si>
+  <si>
+    <t>1- 114 g/km
+2- 119 g/km</t>
+  </si>
+  <si>
+    <t>1- 4.9 lt
+2- 5.2 lt</t>
+  </si>
+  <si>
+    <t>1- 13.4 sn
+2- 14.2 sn</t>
+  </si>
+  <si>
+    <t>1- 185/65/15
+2-- 205/60/16</t>
+  </si>
+  <si>
+    <t>1- 1162 kg
+2- 1188 kg</t>
+  </si>
+  <si>
+    <t>1- 440 lt
+2- 440 lt
+3- 440 lt</t>
+  </si>
+  <si>
+    <t>1- 1150 kg
+2- 1300 kg
+3- 1335 kg</t>
+  </si>
+  <si>
+    <t>1- 205/55/16
+2- 225/45/17
+3- 205/55/16</t>
+  </si>
+  <si>
+    <t>1- 6 lt
+2- 6 lt
+3- 6 lt</t>
+  </si>
+  <si>
+    <t>9.6 sn</t>
+  </si>
+  <si>
+    <t>290 lt</t>
+  </si>
+  <si>
+    <t>1104 kg</t>
+  </si>
+  <si>
+    <t>1.5 / 125 hp / 150 Nm</t>
+  </si>
+  <si>
+    <t>1.0 / 125 hp / 150 Nm</t>
+  </si>
+  <si>
+    <t>11.2 sn</t>
+  </si>
+  <si>
+    <t>131 g/km</t>
+  </si>
+  <si>
+    <t>1255 kg</t>
+  </si>
+  <si>
+    <t>1- 133 g/km
+2- 158 g/km
+3- 133 g/km</t>
+  </si>
+  <si>
+    <t>595 lt</t>
+  </si>
+  <si>
+    <t>1- 130 g/km
+2- 180 g/km</t>
+  </si>
+  <si>
+    <t>1- 133 g/km
+2- 180 g/km</t>
+  </si>
+  <si>
+    <t>230 g/km</t>
+  </si>
+  <si>
+    <t>1- 154 g/km
+2- 180 g/km</t>
+  </si>
+  <si>
+    <t>7.5 lt</t>
+  </si>
+  <si>
+    <t>1- 2.0 / 265 hp / 370 Nm
+2- 3.0 / 340 hp / 500 Nm</t>
+  </si>
+  <si>
+    <t>3.0 / 340 hp / 500 Nm</t>
+  </si>
+  <si>
+    <t>2.0 / 265 hp / 370 Nm</t>
+  </si>
+  <si>
+    <t>1- 1.5 / 150 hp / 250 Nm
+2- 1.0 / 110 hp / 200 Nm</t>
+  </si>
+  <si>
+    <t>1- 1090 kg
+2- 1258 kg</t>
+  </si>
+  <si>
+    <t>1- 5.6 lt
+2- 6.5 lt</t>
+  </si>
+  <si>
+    <t>1- 6.6 lt
+2- 8.2 lt</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B2334C-7F41-4C24-B89E-F77B0B292670}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2365,7 +2470,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E3" s="2">
         <v>4</v>
@@ -2393,7 +2498,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2499,7 +2604,7 @@
         <v>508</v>
       </c>
       <c r="D13" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2724,7 +2829,7 @@
         <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
         <v>142</v>
@@ -2780,7 +2885,7 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -2846,8 +2951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F9C091-4D40-4D94-8285-6B49AFA4EACD}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2907,7 +3012,7 @@
         <v>161</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -2915,7 +3020,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>163</v>
@@ -2923,35 +3028,33 @@
       <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>173</v>
-      </c>
+      <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>164</v>
+        <v>523</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J2" s="10">
         <v>5</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>57</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -2959,37 +3062,37 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" t="s">
+        <v>522</v>
+      </c>
+      <c r="H3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" t="s">
         <v>176</v>
-      </c>
-      <c r="G3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" t="s">
-        <v>178</v>
       </c>
       <c r="L3" t="s">
         <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -2997,37 +3100,37 @@
         <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>522</v>
       </c>
       <c r="H4" t="s">
+        <v>519</v>
+      </c>
+      <c r="I4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" t="s">
         <v>183</v>
-      </c>
-      <c r="I4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K4" t="s">
-        <v>187</v>
       </c>
       <c r="L4" t="s">
         <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -3035,51 +3138,75 @@
         <v>82</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>188</v>
+        <v>520</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L5" t="s">
         <v>70</v>
       </c>
       <c r="M5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="B6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C6" t="s">
+        <v>490</v>
+      </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
+      <c r="F6" t="s">
+        <v>492</v>
+      </c>
+      <c r="G6" t="s">
+        <v>491</v>
+      </c>
+      <c r="H6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I6" t="s">
+        <v>170</v>
+      </c>
       <c r="K6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L6" t="s">
         <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>493</v>
+      </c>
+      <c r="N6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3087,37 +3214,37 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G7" t="s">
-        <v>179</v>
+        <v>522</v>
       </c>
       <c r="H7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L7" t="s">
         <v>69</v>
       </c>
       <c r="M7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3125,45 +3252,45 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" t="s">
+        <v>521</v>
+      </c>
+      <c r="H8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" t="s">
         <v>207</v>
-      </c>
-      <c r="G8" t="s">
-        <v>203</v>
-      </c>
-      <c r="H8" t="s">
-        <v>208</v>
-      </c>
-      <c r="I8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K8" t="s">
-        <v>213</v>
       </c>
       <c r="L8" t="s">
         <v>70</v>
       </c>
       <c r="M8" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" t="s">
         <v>204</v>
-      </c>
-      <c r="N8" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
         <v>163</v>
@@ -3172,19 +3299,19 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L9" t="s">
         <v>57</v>
@@ -3193,118 +3320,118 @@
         <v>162</v>
       </c>
       <c r="N9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L10" t="s">
         <v>69</v>
       </c>
       <c r="M10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>69</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>70</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3312,37 +3439,37 @@
         <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G13" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="I13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L13" t="s">
         <v>57</v>
       </c>
       <c r="M13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N13" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3350,34 +3477,37 @@
         <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
+      <c r="F14" t="s">
+        <v>221</v>
+      </c>
       <c r="G14" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H14" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L14" t="s">
         <v>69</v>
       </c>
       <c r="M14" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N14" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -3385,34 +3515,38 @@
         <v>89</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>263</v>
-      </c>
+      <c r="E15" s="8"/>
       <c r="F15" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>56</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -3420,7 +3554,7 @@
         <v>88</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>163</v>
@@ -3429,28 +3563,28 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3458,34 +3592,34 @@
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C17" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G17" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H17" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L17" t="s">
         <v>69</v>
       </c>
       <c r="M17" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3493,34 +3627,34 @@
         <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C18" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G18" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H18" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I18" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K18" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L18" t="s">
         <v>56</v>
       </c>
       <c r="M18" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -3528,48 +3662,72 @@
         <v>92</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>57</v>
       </c>
       <c r="M19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="N19" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="L20" s="8" t="s">
         <v>56</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -3577,68 +3735,107 @@
         <v>94</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>501</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>513</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>504</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>57</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>95</v>
       </c>
+      <c r="B22" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" t="s">
+        <v>506</v>
+      </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G22" t="s">
-        <v>300</v>
+        <v>509</v>
       </c>
       <c r="H22" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="I22" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K22" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="L22" t="s">
         <v>56</v>
+      </c>
+      <c r="M22" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="B23" t="s">
+        <v>510</v>
+      </c>
+      <c r="C23" t="s">
+        <v>299</v>
+      </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
+      <c r="F23" t="s">
+        <v>511</v>
+      </c>
       <c r="G23" t="s">
-        <v>305</v>
+        <v>508</v>
+      </c>
+      <c r="H23" t="s">
+        <v>376</v>
       </c>
       <c r="I23" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K23" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="L23" t="s">
         <v>57</v>
+      </c>
+      <c r="M23" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -3646,37 +3843,37 @@
         <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C24" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G24" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="H24" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K24" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="L24" t="s">
         <v>57</v>
       </c>
       <c r="M24" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="N24" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3684,34 +3881,34 @@
         <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C25" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G25" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H25" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="I25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L25" t="s">
         <v>69</v>
       </c>
       <c r="M25" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="N25" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3738,7 +3935,7 @@
     </row>
     <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -3763,34 +3960,37 @@
         <v>102</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="F30" s="7" t="s">
+        <v>515</v>
+      </c>
       <c r="G30" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>323</v>
+        <v>525</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>57</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -3798,31 +3998,37 @@
         <v>103</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="F31" s="7" t="s">
+        <v>516</v>
+      </c>
       <c r="G31" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>526</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>69</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3830,31 +4036,34 @@
         <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C32" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
       </c>
+      <c r="F32" t="s">
+        <v>517</v>
+      </c>
       <c r="G32" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="I32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K32" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="L32" t="s">
         <v>70</v>
       </c>
       <c r="M32" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="N32" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -3862,31 +4071,34 @@
         <v>105</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="F33" s="7" t="s">
+        <v>518</v>
+      </c>
       <c r="G33" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>57</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3894,31 +4106,34 @@
         <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C34" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
       </c>
+      <c r="F34" t="s">
+        <v>302</v>
+      </c>
       <c r="G34" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="I34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K34" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="L34" t="s">
         <v>57</v>
       </c>
       <c r="M34" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="N34" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3926,34 +4141,34 @@
         <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C35" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G35" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="H35" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="I35" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s">
         <v>56</v>
       </c>
       <c r="M35" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="N35" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3961,34 +4176,34 @@
         <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C36" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G36" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H36" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="I36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L36" t="s">
         <v>56</v>
       </c>
       <c r="M36" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="N36" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -3996,34 +4211,34 @@
         <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G37" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="H37" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="I37" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s">
         <v>57</v>
       </c>
       <c r="M37" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="N37" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -4031,34 +4246,34 @@
         <v>110</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K38" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>56</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -4066,34 +4281,34 @@
         <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C39" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="G39" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="H39" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="I39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L39" t="s">
         <v>69</v>
       </c>
       <c r="M39" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="N39" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -4101,34 +4316,34 @@
         <v>117</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>56</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -4136,34 +4351,34 @@
         <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C41" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G41" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H41" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="I41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s">
         <v>57</v>
       </c>
       <c r="M41" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="N41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -4171,34 +4386,34 @@
         <v>115</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>69</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -4206,34 +4421,34 @@
         <v>114</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>56</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -4241,34 +4456,34 @@
         <v>113</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L44" s="8" t="s">
         <v>57</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -4276,34 +4491,34 @@
         <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C45" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G45" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H45" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s">
         <v>70</v>
       </c>
       <c r="M45" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="N45" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -4311,37 +4526,37 @@
         <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G46" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="H46" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="I46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K46" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="L46" t="s">
         <v>56</v>
       </c>
       <c r="M46" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="N46" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -4349,37 +4564,37 @@
         <v>120</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>56</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -4387,72 +4602,75 @@
         <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C48" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G48" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="H48" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K48" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="L48" t="s">
         <v>57</v>
       </c>
       <c r="M48" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="N48" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>122</v>
       </c>
+      <c r="B49" t="s">
+        <v>276</v>
+      </c>
       <c r="C49" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G49" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="H49" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I49" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K49" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="L49" t="s">
         <v>57</v>
       </c>
       <c r="M49" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="N49" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -4460,37 +4678,37 @@
         <v>123</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>56</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -4498,37 +4716,37 @@
         <v>124</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L51" s="8" t="s">
         <v>56</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -4536,7 +4754,7 @@
         <v>125</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>163</v>
@@ -4545,28 +4763,28 @@
         <v>17</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="L52" s="8" t="s">
         <v>57</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -4574,34 +4792,34 @@
         <v>126</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="H53" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>57</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -4609,35 +4827,37 @@
         <v>127</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="C54" s="8"/>
+        <v>444</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>514</v>
+      </c>
       <c r="D54" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>69</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -4645,37 +4865,37 @@
         <v>128</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>57</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -4683,7 +4903,7 @@
         <v>129</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>163</v>
@@ -4692,22 +4912,22 @@
         <v>17</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>57</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -4715,31 +4935,31 @@
         <v>130</v>
       </c>
       <c r="B57" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="H57" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L57" t="s">
         <v>69</v>
       </c>
       <c r="M57" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -4747,31 +4967,31 @@
         <v>131</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="L58" s="8" t="s">
         <v>56</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -4779,31 +4999,31 @@
         <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C59" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G59" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="H59" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="I59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L59" t="s">
         <v>56</v>
       </c>
       <c r="M59" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -4811,31 +5031,31 @@
         <v>133</v>
       </c>
       <c r="B60" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C60" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G60" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="H60" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="I60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L60" t="s">
         <v>57</v>
       </c>
       <c r="M60" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="18" x14ac:dyDescent="0.35">
@@ -4846,10 +5066,10 @@
         <v>18</v>
       </c>
       <c r="I61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K61" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="L61" t="s">
         <v>70</v>
@@ -4863,10 +5083,10 @@
         <v>19</v>
       </c>
       <c r="I62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K62" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="L62" t="s">
         <v>57</v>
@@ -4880,10 +5100,10 @@
         <v>19</v>
       </c>
       <c r="I63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K63" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="L63" t="s">
         <v>69</v>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmu\Documents\Projects\Which Car\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12447F43-4F2F-4F2E-9023-2E5B7E55323A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4C1523-26AD-4151-905D-07DF2402FFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3B4BDF85-B6F6-4055-99A3-4008C0DAF8C5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="553">
   <si>
     <t>Audi</t>
   </si>
@@ -489,9 +489,6 @@
   </si>
   <si>
     <t>Chassis Type</t>
-  </si>
-  <si>
-    <t>Dimensions</t>
   </si>
   <si>
     <t>Emission Results</t>
@@ -1815,6 +1812,97 @@
   <si>
     <t>1- 6.6 lt
 2- 8.2 lt</t>
+  </si>
+  <si>
+    <t>10 lt</t>
+  </si>
+  <si>
+    <t>250 lt</t>
+  </si>
+  <si>
+    <t>175/65/14</t>
+  </si>
+  <si>
+    <t>1- 1.0 / 65 hp / 95 Nm
+2- 1.2 / 85 hp / 120 Nm</t>
+  </si>
+  <si>
+    <t>1- 17.3 sn 
+2- 15.8 sn</t>
+  </si>
+  <si>
+    <t>1- 5.7 lt
+2- 6.2 lt</t>
+  </si>
+  <si>
+    <t>1- 130 g/km
+2- 141 g/km</t>
+  </si>
+  <si>
+    <t>1- 996 kg
+2- 1010 kg</t>
+  </si>
+  <si>
+    <t>1- 12.9 sn
+2- 11.4 sn</t>
+  </si>
+  <si>
+    <t>1- 7.1 lt
+2- 6.1 lt</t>
+  </si>
+  <si>
+    <t>1- 162 g/km
+2- 139 g/km</t>
+  </si>
+  <si>
+    <t>1- 1.4 / 100 hp / 135 Nm (A)
+2- 1.0 / 100 hp / 170 Nm</t>
+  </si>
+  <si>
+    <t>1- 1130 kg
+2- 1165 kg</t>
+  </si>
+  <si>
+    <t>1.6 / 125 hp / 155 Nm</t>
+  </si>
+  <si>
+    <t>10.7 sn</t>
+  </si>
+  <si>
+    <t>6.2 lt</t>
+  </si>
+  <si>
+    <t>160 g/km</t>
+  </si>
+  <si>
+    <t>475 lt</t>
+  </si>
+  <si>
+    <t>1285 kg</t>
+  </si>
+  <si>
+    <t>195/65/15</t>
+  </si>
+  <si>
+    <t>620 lt</t>
+  </si>
+  <si>
+    <t>235/55/18</t>
+  </si>
+  <si>
+    <t>8.8 sn</t>
+  </si>
+  <si>
+    <t>167 g/km</t>
+  </si>
+  <si>
+    <t>1- 1.6 / 180 hp / 265 Nm</t>
+  </si>
+  <si>
+    <t>1- 7.4 lt</t>
+  </si>
+  <si>
+    <t>1542 kg</t>
   </si>
 </sst>
 </file>
@@ -2077,14 +2165,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}" name="Table2" displayName="Table2" ref="A1:N63" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:N63" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}" name="Table2" displayName="Table2" ref="A1:M63" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:M63" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{AE6F8509-6BCD-4252-BFBF-F091B627B085}" name="Brand / Detail" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{8225C3C3-D29B-4D29-832A-AE7CDD214436}" name="Acceleration"/>
     <tableColumn id="3" xr3:uid="{5BC1ABE1-F747-4FF1-9DAE-C933BB65DF94}" name="Baggage Size"/>
     <tableColumn id="4" xr3:uid="{EC49E71E-E65A-4CD4-8207-1EFFA2153AA1}" name="Chassis Type"/>
-    <tableColumn id="5" xr3:uid="{3EAA9645-12D7-480C-897D-7EDDC6CF6625}" name="Dimensions"/>
     <tableColumn id="6" xr3:uid="{26548BF4-6695-406C-83E5-3AFB23B28855}" name="Emission Results"/>
     <tableColumn id="7" xr3:uid="{8D25E908-E966-4737-B96F-19B2460D5606}" name="Engine"/>
     <tableColumn id="8" xr3:uid="{1DF695D1-C61C-42D7-8E30-09D1D7E914F4}" name="Fuel Efficiency"/>
@@ -2470,7 +2557,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" s="2">
         <v>4</v>
@@ -2498,7 +2585,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2604,7 +2691,7 @@
         <v>508</v>
       </c>
       <c r="D13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2829,7 +2916,7 @@
         <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
         <v>142</v>
@@ -2885,7 +2972,7 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -2949,10 +3036,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F9C091-4D40-4D94-8285-6B49AFA4EACD}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2960,9 +3047,9 @@
     <col min="1" max="1" width="24.77734375" customWidth="1"/>
     <col min="2" max="4" width="18.77734375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
     <col min="9" max="9" width="19.77734375" customWidth="1"/>
     <col min="10" max="10" width="18.88671875" customWidth="1"/>
     <col min="11" max="11" width="18.77734375" customWidth="1"/>
@@ -2971,7 +3058,7 @@
     <col min="14" max="14" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>78</v>
       </c>
@@ -3006,2106 +3093,2206 @@
         <v>156</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="F2" s="7" t="s">
-        <v>167</v>
+        <v>522</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="10">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="10">
-        <v>5</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="L2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
       <c r="F3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" t="s">
         <v>174</v>
       </c>
-      <c r="G3" t="s">
-        <v>522</v>
-      </c>
-      <c r="H3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K3" t="s">
-        <v>176</v>
-      </c>
-      <c r="L3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>521</v>
       </c>
       <c r="G4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H4" t="s">
-        <v>519</v>
-      </c>
-      <c r="I4" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="J4" t="s">
+        <v>182</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="M4" t="s">
-        <v>177</v>
-      </c>
-      <c r="N4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
+      <c r="E5" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="F5" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C6" t="s">
         <v>489</v>
-      </c>
-      <c r="C6" t="s">
-        <v>490</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
+      <c r="E6" t="s">
+        <v>491</v>
+      </c>
       <c r="F6" t="s">
+        <v>490</v>
+      </c>
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
         <v>492</v>
       </c>
-      <c r="G6" t="s">
-        <v>491</v>
-      </c>
-      <c r="H6" t="s">
-        <v>280</v>
-      </c>
-      <c r="I6" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" t="s">
-        <v>205</v>
-      </c>
-      <c r="L6" t="s">
-        <v>57</v>
-      </c>
       <c r="M6" t="s">
-        <v>493</v>
-      </c>
-      <c r="N6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
       <c r="F7" t="s">
-        <v>197</v>
+        <v>521</v>
       </c>
       <c r="G7" t="s">
-        <v>522</v>
+        <v>195</v>
       </c>
       <c r="H7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I7" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="J7" t="s">
+        <v>205</v>
       </c>
       <c r="K7" t="s">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="M7" t="s">
-        <v>193</v>
-      </c>
-      <c r="N7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
+      <c r="E8" t="s">
+        <v>200</v>
+      </c>
       <c r="F8" t="s">
+        <v>520</v>
+      </c>
+      <c r="G8" t="s">
         <v>201</v>
       </c>
-      <c r="G8" t="s">
-        <v>521</v>
-      </c>
       <c r="H8" t="s">
-        <v>202</v>
-      </c>
-      <c r="I8" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="J8" t="s">
+        <v>206</v>
       </c>
       <c r="K8" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="M8" t="s">
-        <v>198</v>
-      </c>
-      <c r="N8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
+      <c r="E9" t="s">
+        <v>212</v>
+      </c>
       <c r="F9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" t="s">
         <v>213</v>
       </c>
-      <c r="G9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" t="s">
-        <v>212</v>
-      </c>
-      <c r="I9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K9" t="s">
+    </row>
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="L9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" t="s">
-        <v>162</v>
-      </c>
-      <c r="N9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
+      <c r="E10" t="s">
+        <v>220</v>
+      </c>
       <c r="F10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" t="s">
         <v>221</v>
       </c>
-      <c r="G10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H10" t="s">
-        <v>182</v>
-      </c>
-      <c r="I10" t="s">
-        <v>170</v>
-      </c>
       <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="L10" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="B11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E11" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="F11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="E12" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="F12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L12" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="N12" s="8" t="s">
+      <c r="L12" s="7" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="M12" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
+      <c r="E13" t="s">
+        <v>243</v>
+      </c>
       <c r="F13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" t="s">
+        <v>172</v>
+      </c>
+      <c r="M13" t="s">
         <v>244</v>
       </c>
-      <c r="G13" t="s">
-        <v>242</v>
-      </c>
-      <c r="H13" t="s">
-        <v>253</v>
-      </c>
-      <c r="I13" t="s">
-        <v>170</v>
-      </c>
-      <c r="K13" t="s">
-        <v>246</v>
-      </c>
-      <c r="L13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" t="s">
-        <v>173</v>
-      </c>
-      <c r="N13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
+      <c r="E14" t="s">
+        <v>220</v>
+      </c>
       <c r="F14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G14" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
-      </c>
-      <c r="I14" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="J14" t="s">
+        <v>250</v>
       </c>
       <c r="K14" t="s">
-        <v>251</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s">
-        <v>69</v>
+        <v>246</v>
       </c>
       <c r="M14" t="s">
-        <v>247</v>
-      </c>
-      <c r="N14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="F15" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L15" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L15" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="E16" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="F16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
+      <c r="E17" t="s">
+        <v>271</v>
+      </c>
       <c r="F17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
         <v>272</v>
       </c>
-      <c r="G17" t="s">
+      <c r="K17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" t="s">
         <v>267</v>
       </c>
-      <c r="H17" t="s">
-        <v>271</v>
-      </c>
-      <c r="I17" t="s">
-        <v>170</v>
-      </c>
-      <c r="K17" t="s">
-        <v>273</v>
-      </c>
-      <c r="L17" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
+      <c r="E18" t="s">
+        <v>277</v>
+      </c>
       <c r="F18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" t="s">
+        <v>276</v>
+      </c>
+      <c r="H18" t="s">
+        <v>289</v>
+      </c>
+      <c r="J18" t="s">
         <v>278</v>
       </c>
-      <c r="G18" t="s">
-        <v>267</v>
-      </c>
-      <c r="H18" t="s">
-        <v>277</v>
-      </c>
-      <c r="I18" t="s">
-        <v>290</v>
-      </c>
       <c r="K18" t="s">
-        <v>279</v>
+        <v>56</v>
       </c>
       <c r="L18" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="E19" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M19" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="N21" s="7" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C22" t="s">
         <v>505</v>
-      </c>
-      <c r="C22" t="s">
-        <v>506</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
+      <c r="E22" t="s">
+        <v>292</v>
+      </c>
       <c r="F22" t="s">
+        <v>508</v>
+      </c>
+      <c r="G22" t="s">
         <v>293</v>
       </c>
-      <c r="G22" t="s">
-        <v>509</v>
-      </c>
       <c r="H22" t="s">
+        <v>289</v>
+      </c>
+      <c r="J22" t="s">
         <v>294</v>
       </c>
-      <c r="I22" t="s">
-        <v>290</v>
-      </c>
       <c r="K22" t="s">
-        <v>295</v>
+        <v>56</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
-      </c>
-      <c r="M22" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
+      <c r="E23" t="s">
+        <v>510</v>
+      </c>
       <c r="F23" t="s">
+        <v>507</v>
+      </c>
+      <c r="G23" t="s">
+        <v>375</v>
+      </c>
+      <c r="H23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J23" t="s">
+        <v>295</v>
+      </c>
+      <c r="K23" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" t="s">
         <v>511</v>
       </c>
-      <c r="G23" t="s">
-        <v>508</v>
-      </c>
-      <c r="H23" t="s">
-        <v>376</v>
-      </c>
-      <c r="I23" t="s">
-        <v>290</v>
-      </c>
-      <c r="K23" t="s">
-        <v>296</v>
-      </c>
-      <c r="L23" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="E24" t="s">
+        <v>301</v>
+      </c>
       <c r="F24" t="s">
+        <v>296</v>
+      </c>
+      <c r="G24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" t="s">
+        <v>299</v>
+      </c>
+      <c r="K24" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" t="s">
         <v>302</v>
       </c>
-      <c r="G24" t="s">
+      <c r="M24" t="s">
         <v>297</v>
       </c>
-      <c r="H24" t="s">
-        <v>301</v>
-      </c>
-      <c r="I24" t="s">
-        <v>170</v>
-      </c>
-      <c r="K24" t="s">
-        <v>300</v>
-      </c>
-      <c r="L24" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" t="s">
-        <v>303</v>
-      </c>
-      <c r="N24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
+      <c r="E25" t="s">
+        <v>307</v>
+      </c>
       <c r="F25" t="s">
+        <v>303</v>
+      </c>
+      <c r="G25" t="s">
         <v>308</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" t="s">
         <v>304</v>
-      </c>
-      <c r="H25" t="s">
-        <v>309</v>
-      </c>
-      <c r="I25" t="s">
-        <v>170</v>
-      </c>
-      <c r="L25" t="s">
-        <v>69</v>
       </c>
       <c r="M25" t="s">
         <v>305</v>
       </c>
-      <c r="N25" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+    </row>
+    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B26" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L26" t="s">
+      <c r="E26" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+      <c r="L26" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B27" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L27" t="s">
+      <c r="E27" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="L27" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
+      </c>
+      <c r="B28" t="s">
+        <v>540</v>
+      </c>
+      <c r="C28" t="s">
+        <v>543</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
       </c>
+      <c r="E28" t="s">
+        <v>542</v>
+      </c>
+      <c r="F28" t="s">
+        <v>539</v>
+      </c>
+      <c r="G28" t="s">
+        <v>541</v>
+      </c>
+      <c r="H28" t="s">
+        <v>289</v>
+      </c>
+      <c r="K28" t="s">
+        <v>57</v>
+      </c>
       <c r="L28" t="s">
+        <v>544</v>
+      </c>
+      <c r="M28" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>549</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
       <c r="L29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="E30" s="7" t="s">
+        <v>514</v>
+      </c>
       <c r="F30" s="7" t="s">
-        <v>515</v>
+        <v>326</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L30" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K30" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="L30" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="M30" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="E31" s="7" t="s">
+        <v>515</v>
+      </c>
       <c r="F31" s="7" t="s">
-        <v>516</v>
+        <v>325</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L31" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K31" s="8" t="s">
         <v>69</v>
       </c>
+      <c r="L31" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="M31" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
       </c>
+      <c r="E32" t="s">
+        <v>516</v>
+      </c>
       <c r="F32" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="G32" t="s">
-        <v>325</v>
-      </c>
-      <c r="I32" t="s">
-        <v>170</v>
+        <v>526</v>
+      </c>
+      <c r="H32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J32" t="s">
+        <v>323</v>
       </c>
       <c r="K32" t="s">
-        <v>324</v>
+        <v>70</v>
       </c>
       <c r="L32" t="s">
-        <v>70</v>
+        <v>322</v>
       </c>
       <c r="M32" t="s">
-        <v>323</v>
-      </c>
-      <c r="N32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="E33" s="7" t="s">
+        <v>517</v>
+      </c>
       <c r="F33" s="7" t="s">
-        <v>518</v>
+        <v>329</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L33" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K33" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="L33" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="M33" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
       </c>
+      <c r="E34" t="s">
+        <v>301</v>
+      </c>
       <c r="F34" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>311</v>
-      </c>
-      <c r="I34" t="s">
-        <v>170</v>
+        <v>483</v>
+      </c>
+      <c r="H34" t="s">
+        <v>169</v>
+      </c>
+      <c r="J34" t="s">
+        <v>337</v>
       </c>
       <c r="K34" t="s">
-        <v>338</v>
+        <v>57</v>
       </c>
       <c r="L34" t="s">
-        <v>57</v>
+        <v>335</v>
       </c>
       <c r="M34" t="s">
-        <v>336</v>
-      </c>
-      <c r="N34" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
+      <c r="E35" t="s">
+        <v>348</v>
+      </c>
       <c r="F35" t="s">
+        <v>344</v>
+      </c>
+      <c r="G35" t="s">
+        <v>347</v>
+      </c>
+      <c r="H35" t="s">
+        <v>289</v>
+      </c>
+      <c r="K35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" t="s">
+        <v>346</v>
+      </c>
+      <c r="M35" t="s">
         <v>349</v>
       </c>
-      <c r="G35" t="s">
-        <v>345</v>
-      </c>
-      <c r="H35" t="s">
-        <v>348</v>
-      </c>
-      <c r="I35" t="s">
-        <v>290</v>
-      </c>
-      <c r="L35" t="s">
-        <v>56</v>
-      </c>
-      <c r="M35" t="s">
-        <v>347</v>
-      </c>
-      <c r="N35" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
+      <c r="E36" t="s">
+        <v>341</v>
+      </c>
       <c r="F36" t="s">
+        <v>338</v>
+      </c>
+      <c r="G36" t="s">
+        <v>340</v>
+      </c>
+      <c r="H36" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" t="s">
+        <v>343</v>
+      </c>
+      <c r="M36" t="s">
         <v>342</v>
       </c>
-      <c r="G36" t="s">
-        <v>339</v>
-      </c>
-      <c r="H36" t="s">
-        <v>341</v>
-      </c>
-      <c r="I36" t="s">
-        <v>170</v>
-      </c>
-      <c r="L36" t="s">
-        <v>56</v>
-      </c>
-      <c r="M36" t="s">
-        <v>344</v>
-      </c>
-      <c r="N36" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
       </c>
+      <c r="E37" t="s">
+        <v>243</v>
+      </c>
       <c r="F37" t="s">
-        <v>244</v>
+        <v>350</v>
       </c>
       <c r="G37" t="s">
         <v>351</v>
       </c>
       <c r="H37" t="s">
+        <v>289</v>
+      </c>
+      <c r="K37" t="s">
+        <v>57</v>
+      </c>
+      <c r="L37" t="s">
         <v>352</v>
       </c>
-      <c r="I37" t="s">
-        <v>290</v>
-      </c>
-      <c r="L37" t="s">
-        <v>57</v>
-      </c>
       <c r="M37" t="s">
-        <v>353</v>
-      </c>
-      <c r="N37" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>110</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="E38" s="7" t="s">
+        <v>356</v>
+      </c>
       <c r="F38" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>355</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="K38" t="s">
-        <v>354</v>
-      </c>
-      <c r="L38" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J38" t="s">
+        <v>353</v>
+      </c>
+      <c r="K38" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M38" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="L38" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
       </c>
+      <c r="E39" t="s">
+        <v>362</v>
+      </c>
       <c r="F39" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G39" t="s">
+        <v>293</v>
+      </c>
+      <c r="H39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K39" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" t="s">
+        <v>364</v>
+      </c>
+      <c r="M39" t="s">
         <v>361</v>
       </c>
-      <c r="H39" t="s">
-        <v>294</v>
-      </c>
-      <c r="I39" t="s">
-        <v>170</v>
-      </c>
-      <c r="L39" t="s">
-        <v>69</v>
-      </c>
-      <c r="M39" t="s">
-        <v>365</v>
-      </c>
-      <c r="N39" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="E40" s="7" t="s">
+        <v>356</v>
+      </c>
       <c r="F40" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>355</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L40" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M40" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="N40" s="8" t="s">
+      <c r="L40" s="7" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="M40" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
+      <c r="E41" t="s">
+        <v>376</v>
+      </c>
       <c r="F41" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G41" t="s">
+        <v>375</v>
+      </c>
+      <c r="H41" t="s">
+        <v>169</v>
+      </c>
+      <c r="K41" t="s">
+        <v>57</v>
+      </c>
+      <c r="L41" t="s">
         <v>372</v>
       </c>
-      <c r="H41" t="s">
-        <v>376</v>
-      </c>
-      <c r="I41" t="s">
-        <v>170</v>
-      </c>
-      <c r="L41" t="s">
-        <v>57</v>
-      </c>
       <c r="M41" t="s">
-        <v>373</v>
-      </c>
-      <c r="N41" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="E42" s="7" t="s">
+        <v>381</v>
+      </c>
       <c r="F42" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="M42" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="H42" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>114</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="E43" s="7" t="s">
+        <v>388</v>
+      </c>
       <c r="F43" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M43" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="G44" s="7" t="s">
+      <c r="E44" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="N44" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="M44" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
+      <c r="E45" t="s">
+        <v>397</v>
+      </c>
       <c r="F45" t="s">
-        <v>398</v>
+        <v>266</v>
       </c>
       <c r="G45" t="s">
-        <v>267</v>
+        <v>396</v>
       </c>
       <c r="H45" t="s">
-        <v>397</v>
-      </c>
-      <c r="I45" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="K45" t="s">
+        <v>70</v>
       </c>
       <c r="L45" t="s">
-        <v>70</v>
+        <v>393</v>
       </c>
       <c r="M45" t="s">
-        <v>394</v>
-      </c>
-      <c r="N45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
       </c>
+      <c r="E46" t="s">
+        <v>392</v>
+      </c>
       <c r="F46" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G46" t="s">
+        <v>270</v>
+      </c>
+      <c r="H46" t="s">
+        <v>169</v>
+      </c>
+      <c r="J46" t="s">
+        <v>419</v>
+      </c>
+      <c r="K46" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" t="s">
         <v>399</v>
       </c>
-      <c r="H46" t="s">
-        <v>271</v>
-      </c>
-      <c r="I46" t="s">
-        <v>170</v>
-      </c>
-      <c r="K46" t="s">
-        <v>420</v>
-      </c>
-      <c r="L46" t="s">
-        <v>56</v>
-      </c>
       <c r="M46" t="s">
-        <v>400</v>
-      </c>
-      <c r="N46" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="E47" s="7" t="s">
+        <v>401</v>
+      </c>
       <c r="F47" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>401</v>
-      </c>
       <c r="H47" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L47" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K47" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M47" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="N47" s="8" t="s">
+      <c r="L47" s="7" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="M47" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
       </c>
+      <c r="E48" t="s">
+        <v>397</v>
+      </c>
       <c r="F48" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="G48" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="H48" t="s">
-        <v>397</v>
-      </c>
-      <c r="I48" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="J48" t="s">
+        <v>421</v>
       </c>
       <c r="K48" t="s">
-        <v>422</v>
+        <v>57</v>
       </c>
       <c r="L48" t="s">
-        <v>57</v>
+        <v>409</v>
       </c>
       <c r="M48" t="s">
-        <v>410</v>
-      </c>
-      <c r="N48" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
       </c>
+      <c r="E49" t="s">
+        <v>411</v>
+      </c>
       <c r="F49" t="s">
+        <v>410</v>
+      </c>
+      <c r="G49" t="s">
+        <v>396</v>
+      </c>
+      <c r="H49" t="s">
+        <v>289</v>
+      </c>
+      <c r="J49" t="s">
+        <v>422</v>
+      </c>
+      <c r="K49" t="s">
+        <v>57</v>
+      </c>
+      <c r="L49" t="s">
+        <v>413</v>
+      </c>
+      <c r="M49" t="s">
         <v>412</v>
       </c>
-      <c r="G49" t="s">
-        <v>411</v>
-      </c>
-      <c r="H49" t="s">
-        <v>397</v>
-      </c>
-      <c r="I49" t="s">
-        <v>290</v>
-      </c>
-      <c r="K49" t="s">
-        <v>423</v>
-      </c>
-      <c r="L49" t="s">
-        <v>57</v>
-      </c>
-      <c r="M49" t="s">
-        <v>414</v>
-      </c>
-      <c r="N49" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="E50" s="7" t="s">
+        <v>414</v>
+      </c>
       <c r="F50" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>401</v>
-      </c>
       <c r="H50" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L50" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K50" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M50" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L50" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="E51" s="7" t="s">
+        <v>427</v>
+      </c>
       <c r="F51" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M51" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="E52" s="7" t="s">
+        <v>433</v>
+      </c>
       <c r="F52" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="G52" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M52" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M52" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="E53" s="7" t="s">
+        <v>439</v>
+      </c>
       <c r="F53" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L53" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K53" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M53" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L53" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="E54" s="7" t="s">
+        <v>445</v>
+      </c>
       <c r="F54" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="M54" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M54" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>128</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="M55" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="E56" s="7" t="s">
+        <v>462</v>
+      </c>
       <c r="F56" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
         <v>130</v>
       </c>
       <c r="B57" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F57" t="s">
-        <v>471</v>
-      </c>
-      <c r="G57" s="7" t="s">
+      <c r="E57" t="s">
+        <v>470</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G57" t="s">
+        <v>469</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K57" t="s">
+        <v>69</v>
+      </c>
+      <c r="L57" t="s">
         <v>466</v>
       </c>
-      <c r="H57" t="s">
-        <v>470</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L57" t="s">
-        <v>69</v>
-      </c>
-      <c r="M57" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>131</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="E58" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="H58" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="I58" s="7" t="s">
+      <c r="K58" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="L58" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C59" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
       </c>
+      <c r="E59" t="s">
+        <v>277</v>
+      </c>
       <c r="F59" t="s">
-        <v>278</v>
+        <v>465</v>
       </c>
       <c r="G59" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="H59" t="s">
-        <v>481</v>
-      </c>
-      <c r="I59" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="K59" t="s">
+        <v>56</v>
       </c>
       <c r="L59" t="s">
-        <v>56</v>
-      </c>
-      <c r="M59" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
       </c>
+      <c r="E60" t="s">
+        <v>484</v>
+      </c>
       <c r="F60" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="G60" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="H60" t="s">
-        <v>484</v>
-      </c>
-      <c r="I60" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="K60" t="s">
+        <v>57</v>
       </c>
       <c r="L60" t="s">
-        <v>57</v>
-      </c>
-      <c r="M60" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>134</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
-      <c r="I61" t="s">
-        <v>170</v>
+      <c r="H61" t="s">
+        <v>169</v>
+      </c>
+      <c r="J61" t="s">
+        <v>485</v>
       </c>
       <c r="K61" t="s">
-        <v>486</v>
-      </c>
-      <c r="L61" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D62" t="s">
         <v>19</v>
       </c>
-      <c r="I62" t="s">
-        <v>170</v>
+      <c r="H62" t="s">
+        <v>169</v>
+      </c>
+      <c r="J62" t="s">
+        <v>486</v>
       </c>
       <c r="K62" t="s">
-        <v>487</v>
-      </c>
-      <c r="L62" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
       </c>
-      <c r="I63" t="s">
-        <v>170</v>
+      <c r="H63" t="s">
+        <v>169</v>
+      </c>
+      <c r="J63" t="s">
+        <v>487</v>
       </c>
       <c r="K63" t="s">
-        <v>488</v>
-      </c>
-      <c r="L63" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5123,7 +5310,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5134,19 +5321,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>148</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmu\Documents\Projects\Which Car\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4C1523-26AD-4151-905D-07DF2402FFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0B4959-E87D-44C6-B7D6-C606B0E17C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3B4BDF85-B6F6-4055-99A3-4008C0DAF8C5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="603">
   <si>
     <t>Audi</t>
   </si>
@@ -1903,6 +1903,157 @@
   </si>
   <si>
     <t>1542 kg</t>
+  </si>
+  <si>
+    <t>225/30/20</t>
+  </si>
+  <si>
+    <t>215/50/17</t>
+  </si>
+  <si>
+    <t>205/60/16</t>
+  </si>
+  <si>
+    <t>235/50/19</t>
+  </si>
+  <si>
+    <t>3 (8-8-6-4) / 2014</t>
+  </si>
+  <si>
+    <t>3 (8-7-6-4) / 2017</t>
+  </si>
+  <si>
+    <t>No Result</t>
+  </si>
+  <si>
+    <t>5 (9-9-7-6) / 2017</t>
+  </si>
+  <si>
+    <t>1- 4 (8-8-6-6) / 2013
+2- 2 (7-8-5-5) / 2021</t>
+  </si>
+  <si>
+    <t>5 (10-9-8-8) / 2019</t>
+  </si>
+  <si>
+    <t>4 (10-7-8-9) / 2017</t>
+  </si>
+  <si>
+    <t>5 (10-9-7-8) / 2019</t>
+  </si>
+  <si>
+    <t>3 (7-8-6-6) / 2020</t>
+  </si>
+  <si>
+    <t>4 (8-9-8-7) / 2021</t>
+  </si>
+  <si>
+    <t>5 (9-9-7-7) / 2021</t>
+  </si>
+  <si>
+    <t>5 (10-10-10-8) / 2018</t>
+  </si>
+  <si>
+    <t>5 (10-9-8-9) / 2022</t>
+  </si>
+  <si>
+    <t>5 (10-9-8-7) / 2016</t>
+  </si>
+  <si>
+    <t>5 (10-10-10-8) / 2019</t>
+  </si>
+  <si>
+    <t>5 (10-9-9-8) / 2019</t>
+  </si>
+  <si>
+    <t>4 (10-8-7-5) / 2017</t>
+  </si>
+  <si>
+    <t>5 (10-10-7-10) / 2021</t>
+  </si>
+  <si>
+    <t>4 (9-9-7-7) / 2019</t>
+  </si>
+  <si>
+    <t>5 (10-9-8-7) / 2017</t>
+  </si>
+  <si>
+    <t>4 (10-9-6-8) / 2019</t>
+  </si>
+  <si>
+    <t>4 (8-9-7-7) / 2022</t>
+  </si>
+  <si>
+    <t>5 (10-9-8-8) / 2018</t>
+  </si>
+  <si>
+    <t>4 (10-9-7-7) / 2019</t>
+  </si>
+  <si>
+    <t>5 (9-8-7-9) / 2013</t>
+  </si>
+  <si>
+    <t>5 (9-9-8-8) / 2015</t>
+  </si>
+  <si>
+    <t>5  (9-9-8-8) / 2015</t>
+  </si>
+  <si>
+    <t>5 (9-9-7-7) / 2022</t>
+  </si>
+  <si>
+    <t>5 (10-9-8-8) / 2022</t>
+  </si>
+  <si>
+    <t>5 (10-8-6-8) / 2010</t>
+  </si>
+  <si>
+    <t>5 (10-9-8-8) / 2017</t>
+  </si>
+  <si>
+    <t>5 (10-8-8-10) / 2017</t>
+  </si>
+  <si>
+    <t>5 (10-9-8-8) / 2016</t>
+  </si>
+  <si>
+    <t>5 (10-9-8-10) / 2017</t>
+  </si>
+  <si>
+    <t>5 (9-9-7-8) / 2020</t>
+  </si>
+  <si>
+    <t>5 (10-9-9-8) / 2018</t>
+  </si>
+  <si>
+    <t>5 (10-9-7-6) / 2016</t>
+  </si>
+  <si>
+    <t>5 (10-9-8-6) / 2017</t>
+  </si>
+  <si>
+    <t>5 (9-9-8-8) / 2019</t>
+  </si>
+  <si>
+    <t>5 (10-9-10-8) / 2019</t>
+  </si>
+  <si>
+    <t>5 (10-9-9-6) / 2017</t>
+  </si>
+  <si>
+    <t>5 (9-9-8-10) / 2022</t>
+  </si>
+  <si>
+    <t>5 (10-9-7-6) / 2017</t>
+  </si>
+  <si>
+    <t>4 (9-9-6-6) / 2017</t>
+  </si>
+  <si>
+    <t>4 (8-9-6-7) / 2021</t>
+  </si>
+  <si>
+    <t>4 (9-9-6-8) / 2022</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +2113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1995,11 +2146,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2114,10 +2274,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B644345E-AE9A-4D52-90BE-423D511E9041}" name="Table26" displayName="Table26" ref="A1:D19" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B644345E-AE9A-4D52-90BE-423D511E9041}" name="Table26" displayName="Table26" ref="A1:D19" headerRowDxfId="10">
   <autoFilter ref="A1:D19" xr:uid="{B644345E-AE9A-4D52-90BE-423D511E9041}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{505A9955-DE8D-41AF-8C1B-14991DB9BD68}" name="Brand / Type" totalsRowLabel="Total" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{505A9955-DE8D-41AF-8C1B-14991DB9BD68}" name="Brand / Type" totalsRowLabel="Total" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{63963C1F-F34E-4D79-BC00-59FA655F49B2}" name="Hatchback"/>
     <tableColumn id="3" xr3:uid="{B5E7656B-5155-445F-9633-EDD5B4E1CF20}" name="Sedan"/>
     <tableColumn id="4" xr3:uid="{14D18755-A730-49F1-A4E5-76DAD0033DB0}" name="SUV" totalsRowFunction="count"/>
@@ -2127,7 +2287,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78612532-9585-4A00-8DB4-111100844320}" name="Table37" displayName="Table37" ref="E1:E19" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78612532-9585-4A00-8DB4-111100844320}" name="Table37" displayName="Table37" ref="E1:E19" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="E1:E19" xr:uid="{78612532-9585-4A00-8DB4-111100844320}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{CD5B4547-99DC-4A2C-AE45-5C80503FAF10}" name="Coupe"/>
@@ -2137,10 +2297,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2CFE93AB-7EB8-4570-9A65-AF77ABD6A551}" name="Table1" displayName="Table1" ref="A1:S6" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2CFE93AB-7EB8-4570-9A65-AF77ABD6A551}" name="Table1" displayName="Table1" ref="A1:S6" headerRowDxfId="7">
   <autoFilter ref="A1:S6" xr:uid="{2CFE93AB-7EB8-4570-9A65-AF77ABD6A551}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0781B8B5-0012-41DB-BF9E-191DE9E1EB15}" name="Segments / Cars" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{0781B8B5-0012-41DB-BF9E-191DE9E1EB15}" name="Segments / Cars" totalsRowLabel="Total" dataDxfId="6" totalsRowDxfId="5"/>
     <tableColumn id="2" xr3:uid="{AC7C027D-4A1F-434A-A962-7F638DC90E4D}" name="Audi"/>
     <tableColumn id="3" xr3:uid="{C35063A0-1D76-4CE7-B172-DA0A14DFE853}" name="BMW"/>
     <tableColumn id="4" xr3:uid="{5D47B387-E003-485A-9B74-6286AFB86E53}" name="Citroën"/>
@@ -2165,10 +2325,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}" name="Table2" displayName="Table2" ref="A1:M63" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}" name="Table2" displayName="Table2" ref="A1:M63" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:M63" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AE6F8509-6BCD-4252-BFBF-F091B627B085}" name="Brand / Detail" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AE6F8509-6BCD-4252-BFBF-F091B627B085}" name="Brand / Detail" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{8225C3C3-D29B-4D29-832A-AE7CDD214436}" name="Acceleration"/>
     <tableColumn id="3" xr3:uid="{5BC1ABE1-F747-4FF1-9DAE-C933BB65DF94}" name="Baggage Size"/>
     <tableColumn id="4" xr3:uid="{EC49E71E-E65A-4CD4-8207-1EFFA2153AA1}" name="Chassis Type"/>
@@ -2176,7 +2336,7 @@
     <tableColumn id="7" xr3:uid="{8D25E908-E966-4737-B96F-19B2460D5606}" name="Engine"/>
     <tableColumn id="8" xr3:uid="{1DF695D1-C61C-42D7-8E30-09D1D7E914F4}" name="Fuel Efficiency"/>
     <tableColumn id="9" xr3:uid="{A13B7561-DE3C-4B45-AAAC-1577A9D810F4}" name="Gearbox "/>
-    <tableColumn id="10" xr3:uid="{48AD2499-694D-4229-A06D-9F13376A798E}" name="Ncap Results"/>
+    <tableColumn id="10" xr3:uid="{48AD2499-694D-4229-A06D-9F13376A798E}" name="Ncap Results" dataDxfId="0"/>
     <tableColumn id="11" xr3:uid="{6148C0D3-952D-4C6E-ADA6-F4C04123FD50}" name="Price"/>
     <tableColumn id="12" xr3:uid="{E9F19F9A-A212-48FA-B854-312DC843EAD6}" name="Segment"/>
     <tableColumn id="13" xr3:uid="{56D5E1F8-1FDB-445D-8B49-BB177E755D80}" name="Weight"/>
@@ -2187,10 +2347,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6EE3F9D9-B11B-4C7D-A428-6CE7160895A7}" name="Table3" displayName="Table3" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6EE3F9D9-B11B-4C7D-A428-6CE7160895A7}" name="Table3" displayName="Table3" ref="A1:E12" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:E12" xr:uid="{6EE3F9D9-B11B-4C7D-A428-6CE7160895A7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{540AF3EF-D3D7-49D7-8585-971156B0EA4C}" name="Value / Criteria" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{540AF3EF-D3D7-49D7-8585-971156B0EA4C}" name="Value / Criteria" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{F6710048-37D8-471C-808B-68E5A2EDF978}" name="Baggage Size"/>
     <tableColumn id="3" xr3:uid="{C41F8C34-080C-4FCE-9F57-CB9E6AEF6A64}" name="Fuel Efficiency"/>
     <tableColumn id="4" xr3:uid="{78780D29-113F-4DC4-8EAF-1055F5C8F7A9}" name="Performance Value"/>
@@ -3038,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F9C091-4D40-4D94-8285-6B49AFA4EACD}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3050,7 +3210,7 @@
     <col min="6" max="6" width="24.77734375" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.88671875" customWidth="1"/>
     <col min="11" max="11" width="18.77734375" customWidth="1"/>
     <col min="12" max="12" width="18.88671875" customWidth="1"/>
@@ -3083,7 +3243,7 @@
       <c r="H1" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="14" t="s">
         <v>154</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -3124,8 +3284,8 @@
       <c r="H2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="10">
-        <v>5</v>
+      <c r="I2" s="10" t="s">
+        <v>591</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>170</v>
@@ -3165,6 +3325,9 @@
       <c r="H3" t="s">
         <v>169</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>559</v>
+      </c>
       <c r="J3" t="s">
         <v>175</v>
       </c>
@@ -3203,6 +3366,9 @@
       <c r="H4" t="s">
         <v>169</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>559</v>
+      </c>
       <c r="J4" t="s">
         <v>182</v>
       </c>
@@ -3241,6 +3407,9 @@
       <c r="H5" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="I5" s="10" t="s">
+        <v>592</v>
+      </c>
       <c r="J5" s="7" t="s">
         <v>189</v>
       </c>
@@ -3279,6 +3448,9 @@
       <c r="H6" t="s">
         <v>169</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>593</v>
+      </c>
       <c r="J6" t="s">
         <v>204</v>
       </c>
@@ -3317,6 +3489,9 @@
       <c r="H7" t="s">
         <v>169</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>594</v>
+      </c>
       <c r="J7" t="s">
         <v>205</v>
       </c>
@@ -3355,6 +3530,9 @@
       <c r="H8" t="s">
         <v>169</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="J8" t="s">
         <v>206</v>
       </c>
@@ -3393,6 +3571,9 @@
       <c r="H9" t="s">
         <v>169</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>595</v>
+      </c>
       <c r="J9" t="s">
         <v>214</v>
       </c>
@@ -3431,6 +3612,9 @@
       <c r="H10" t="s">
         <v>169</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="J10" t="s">
         <v>221</v>
       </c>
@@ -3439,6 +3623,9 @@
       </c>
       <c r="L10" t="s">
         <v>216</v>
+      </c>
+      <c r="M10" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -3466,6 +3653,9 @@
       <c r="H11" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="I11" s="10" t="s">
+        <v>596</v>
+      </c>
       <c r="J11" s="7" t="s">
         <v>230</v>
       </c>
@@ -3504,6 +3694,9 @@
       <c r="H12" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="I12" s="10" t="s">
+        <v>597</v>
+      </c>
       <c r="J12" s="7" t="s">
         <v>239</v>
       </c>
@@ -3542,6 +3735,9 @@
       <c r="H13" t="s">
         <v>169</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>598</v>
+      </c>
       <c r="J13" t="s">
         <v>245</v>
       </c>
@@ -3580,6 +3776,9 @@
       <c r="H14" t="s">
         <v>169</v>
       </c>
+      <c r="I14" s="2" t="s">
+        <v>599</v>
+      </c>
       <c r="J14" t="s">
         <v>250</v>
       </c>
@@ -3618,6 +3817,9 @@
       <c r="H15" s="7" t="s">
         <v>288</v>
       </c>
+      <c r="I15" s="10" t="s">
+        <v>600</v>
+      </c>
       <c r="J15" s="7" t="s">
         <v>258</v>
       </c>
@@ -3656,6 +3858,9 @@
       <c r="H16" s="7" t="s">
         <v>367</v>
       </c>
+      <c r="I16" s="10" t="s">
+        <v>601</v>
+      </c>
       <c r="J16" s="7" t="s">
         <v>265</v>
       </c>
@@ -3694,6 +3899,9 @@
       <c r="H17" t="s">
         <v>169</v>
       </c>
+      <c r="I17" s="2" t="s">
+        <v>602</v>
+      </c>
       <c r="J17" t="s">
         <v>272</v>
       </c>
@@ -3702,6 +3910,9 @@
       </c>
       <c r="L17" t="s">
         <v>267</v>
+      </c>
+      <c r="M17" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -3729,6 +3940,9 @@
       <c r="H18" t="s">
         <v>289</v>
       </c>
+      <c r="I18" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="J18" t="s">
         <v>278</v>
       </c>
@@ -3737,6 +3951,9 @@
       </c>
       <c r="L18" t="s">
         <v>273</v>
+      </c>
+      <c r="M18" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -3764,6 +3981,9 @@
       <c r="H19" s="7" t="s">
         <v>288</v>
       </c>
+      <c r="I19" s="10" t="s">
+        <v>558</v>
+      </c>
       <c r="J19" s="7" t="s">
         <v>283</v>
       </c>
@@ -3802,6 +4022,9 @@
       <c r="H20" s="8" t="s">
         <v>289</v>
       </c>
+      <c r="I20" s="15" t="s">
+        <v>561</v>
+      </c>
       <c r="K20" s="8" t="s">
         <v>56</v>
       </c>
@@ -3837,6 +4060,9 @@
       <c r="H21" s="7" t="s">
         <v>290</v>
       </c>
+      <c r="I21" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="J21" s="7" t="s">
         <v>286</v>
       </c>
@@ -3875,6 +4101,9 @@
       <c r="H22" t="s">
         <v>289</v>
       </c>
+      <c r="I22" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="J22" t="s">
         <v>294</v>
       </c>
@@ -3883,6 +4112,9 @@
       </c>
       <c r="L22" t="s">
         <v>506</v>
+      </c>
+      <c r="M22" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -3910,6 +4142,9 @@
       <c r="H23" t="s">
         <v>289</v>
       </c>
+      <c r="I23" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="J23" t="s">
         <v>295</v>
       </c>
@@ -3918,6 +4153,9 @@
       </c>
       <c r="L23" t="s">
         <v>511</v>
+      </c>
+      <c r="M23" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -3945,6 +4183,9 @@
       <c r="H24" t="s">
         <v>169</v>
       </c>
+      <c r="I24" s="2" t="s">
+        <v>563</v>
+      </c>
       <c r="J24" t="s">
         <v>299</v>
       </c>
@@ -3983,6 +4224,9 @@
       <c r="H25" t="s">
         <v>169</v>
       </c>
+      <c r="I25" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="K25" t="s">
         <v>69</v>
       </c>
@@ -4018,6 +4262,9 @@
       <c r="H26" s="7" t="s">
         <v>458</v>
       </c>
+      <c r="I26" s="10" t="s">
+        <v>565</v>
+      </c>
       <c r="K26" s="8" t="s">
         <v>55</v>
       </c>
@@ -4053,6 +4300,9 @@
       <c r="H27" s="7" t="s">
         <v>458</v>
       </c>
+      <c r="I27" s="10" t="s">
+        <v>566</v>
+      </c>
       <c r="K27" s="8" t="s">
         <v>56</v>
       </c>
@@ -4088,6 +4338,9 @@
       <c r="H28" t="s">
         <v>289</v>
       </c>
+      <c r="I28" s="2" t="s">
+        <v>559</v>
+      </c>
       <c r="K28" t="s">
         <v>57</v>
       </c>
@@ -4123,6 +4376,9 @@
       <c r="H29" s="12" t="s">
         <v>169</v>
       </c>
+      <c r="I29" s="2" t="s">
+        <v>567</v>
+      </c>
       <c r="K29" s="12" t="s">
         <v>57</v>
       </c>
@@ -4158,6 +4414,9 @@
       <c r="H30" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="I30" s="10" t="s">
+        <v>568</v>
+      </c>
       <c r="J30" s="7" t="s">
         <v>315</v>
       </c>
@@ -4196,6 +4455,9 @@
       <c r="H31" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="I31" s="10" t="s">
+        <v>569</v>
+      </c>
       <c r="J31" s="7" t="s">
         <v>320</v>
       </c>
@@ -4234,6 +4496,9 @@
       <c r="H32" t="s">
         <v>169</v>
       </c>
+      <c r="I32" s="2" t="s">
+        <v>570</v>
+      </c>
       <c r="J32" t="s">
         <v>323</v>
       </c>
@@ -4272,6 +4537,9 @@
       <c r="H33" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="I33" s="10" t="s">
+        <v>571</v>
+      </c>
       <c r="J33" s="7" t="s">
         <v>333</v>
       </c>
@@ -4310,6 +4578,9 @@
       <c r="H34" t="s">
         <v>169</v>
       </c>
+      <c r="I34" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="J34" t="s">
         <v>337</v>
       </c>
@@ -4348,6 +4619,9 @@
       <c r="H35" t="s">
         <v>289</v>
       </c>
+      <c r="I35" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="K35" t="s">
         <v>56</v>
       </c>
@@ -4383,6 +4657,9 @@
       <c r="H36" t="s">
         <v>169</v>
       </c>
+      <c r="I36" s="2" t="s">
+        <v>573</v>
+      </c>
       <c r="K36" t="s">
         <v>56</v>
       </c>
@@ -4418,6 +4695,9 @@
       <c r="H37" t="s">
         <v>289</v>
       </c>
+      <c r="I37" s="2" t="s">
+        <v>574</v>
+      </c>
       <c r="K37" t="s">
         <v>57</v>
       </c>
@@ -4453,7 +4733,10 @@
       <c r="H38" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="J38" t="s">
+      <c r="I38" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>353</v>
       </c>
       <c r="K38" s="8" t="s">
@@ -4461,6 +4744,9 @@
       </c>
       <c r="L38" s="7" t="s">
         <v>358</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -4488,6 +4774,9 @@
       <c r="H39" t="s">
         <v>169</v>
       </c>
+      <c r="I39" s="2" t="s">
+        <v>576</v>
+      </c>
       <c r="K39" t="s">
         <v>69</v>
       </c>
@@ -4523,6 +4812,9 @@
       <c r="H40" s="7" t="s">
         <v>367</v>
       </c>
+      <c r="I40" s="10" t="s">
+        <v>577</v>
+      </c>
       <c r="K40" s="8" t="s">
         <v>56</v>
       </c>
@@ -4558,6 +4850,9 @@
       <c r="H41" t="s">
         <v>169</v>
       </c>
+      <c r="I41" s="2" t="s">
+        <v>578</v>
+      </c>
       <c r="K41" t="s">
         <v>57</v>
       </c>
@@ -4593,6 +4888,9 @@
       <c r="H42" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="I42" s="10" t="s">
+        <v>579</v>
+      </c>
       <c r="K42" s="8" t="s">
         <v>69</v>
       </c>
@@ -4628,6 +4926,9 @@
       <c r="H43" s="7" t="s">
         <v>288</v>
       </c>
+      <c r="I43" s="10" t="s">
+        <v>580</v>
+      </c>
       <c r="K43" s="8" t="s">
         <v>56</v>
       </c>
@@ -4663,6 +4964,9 @@
       <c r="H44" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="I44" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="K44" s="8" t="s">
         <v>57</v>
       </c>
@@ -4698,6 +5002,9 @@
       <c r="H45" t="s">
         <v>169</v>
       </c>
+      <c r="I45" s="2" t="s">
+        <v>559</v>
+      </c>
       <c r="K45" t="s">
         <v>70</v>
       </c>
@@ -4733,6 +5040,9 @@
       <c r="H46" t="s">
         <v>169</v>
       </c>
+      <c r="I46" s="2" t="s">
+        <v>581</v>
+      </c>
       <c r="J46" t="s">
         <v>419</v>
       </c>
@@ -4771,6 +5081,9 @@
       <c r="H47" s="7" t="s">
         <v>288</v>
       </c>
+      <c r="I47" s="10" t="s">
+        <v>562</v>
+      </c>
       <c r="J47" s="7" t="s">
         <v>420</v>
       </c>
@@ -4809,6 +5122,9 @@
       <c r="H48" t="s">
         <v>169</v>
       </c>
+      <c r="I48" s="2" t="s">
+        <v>582</v>
+      </c>
       <c r="J48" t="s">
         <v>421</v>
       </c>
@@ -4847,6 +5163,9 @@
       <c r="H49" t="s">
         <v>289</v>
       </c>
+      <c r="I49" s="2" t="s">
+        <v>583</v>
+      </c>
       <c r="J49" t="s">
         <v>422</v>
       </c>
@@ -4885,6 +5204,9 @@
       <c r="H50" s="7" t="s">
         <v>288</v>
       </c>
+      <c r="I50" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="J50" s="7" t="s">
         <v>423</v>
       </c>
@@ -4923,6 +5245,9 @@
       <c r="H51" s="7" t="s">
         <v>367</v>
       </c>
+      <c r="I51" s="10" t="s">
+        <v>584</v>
+      </c>
       <c r="J51" s="7" t="s">
         <v>435</v>
       </c>
@@ -4961,6 +5286,9 @@
       <c r="H52" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="I52" s="10" t="s">
+        <v>585</v>
+      </c>
       <c r="J52" s="7" t="s">
         <v>436</v>
       </c>
@@ -4999,6 +5327,9 @@
       <c r="H53" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="I53" s="10" t="s">
+        <v>562</v>
+      </c>
       <c r="J53" s="7" t="s">
         <v>448</v>
       </c>
@@ -5007,6 +5338,9 @@
       </c>
       <c r="L53" s="7" t="s">
         <v>441</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -5034,6 +5368,9 @@
       <c r="H54" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="I54" s="10" t="s">
+        <v>582</v>
+      </c>
       <c r="J54" s="7" t="s">
         <v>449</v>
       </c>
@@ -5072,6 +5409,9 @@
       <c r="H55" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="I55" s="10" t="s">
+        <v>572</v>
+      </c>
       <c r="J55" s="7" t="s">
         <v>452</v>
       </c>
@@ -5110,11 +5450,17 @@
       <c r="H56" s="7" t="s">
         <v>458</v>
       </c>
+      <c r="I56" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="K56" s="8" t="s">
         <v>57</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>463</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -5142,11 +5488,17 @@
       <c r="H57" s="12" t="s">
         <v>169</v>
       </c>
+      <c r="I57" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="K57" t="s">
         <v>69</v>
       </c>
       <c r="L57" t="s">
         <v>466</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -5174,11 +5526,17 @@
       <c r="H58" s="7" t="s">
         <v>472</v>
       </c>
+      <c r="I58" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="K58" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>473</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -5206,11 +5564,17 @@
       <c r="H59" t="s">
         <v>169</v>
       </c>
+      <c r="I59" s="2" t="s">
+        <v>587</v>
+      </c>
       <c r="K59" t="s">
         <v>56</v>
       </c>
       <c r="L59" t="s">
         <v>479</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -5238,11 +5602,17 @@
       <c r="H60" t="s">
         <v>169</v>
       </c>
+      <c r="I60" s="2" t="s">
+        <v>570</v>
+      </c>
       <c r="K60" t="s">
         <v>57</v>
       </c>
       <c r="L60" t="s">
         <v>482</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -5255,6 +5625,9 @@
       <c r="H61" t="s">
         <v>169</v>
       </c>
+      <c r="I61" s="2" t="s">
+        <v>588</v>
+      </c>
       <c r="J61" t="s">
         <v>485</v>
       </c>
@@ -5272,6 +5645,9 @@
       <c r="H62" t="s">
         <v>169</v>
       </c>
+      <c r="I62" s="2" t="s">
+        <v>589</v>
+      </c>
       <c r="J62" t="s">
         <v>486</v>
       </c>
@@ -5288,6 +5664,9 @@
       </c>
       <c r="H63" t="s">
         <v>169</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>590</v>
       </c>
       <c r="J63" t="s">
         <v>487</v>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmu\Documents\Projects\Which Car\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0B4959-E87D-44C6-B7D6-C606B0E17C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7691F1-9B6D-4A02-8528-F6E77013C36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3B4BDF85-B6F6-4055-99A3-4008C0DAF8C5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="623">
   <si>
     <t>Audi</t>
   </si>
@@ -1672,9 +1672,6 @@
     <t>1.600.349 ₺</t>
   </si>
   <si>
-    <t>2.355.664 ₺</t>
-  </si>
-  <si>
     <t>1- 8.6 sn</t>
   </si>
   <si>
@@ -2054,6 +2051,70 @@
   </si>
   <si>
     <t>4 (9-9-6-8) / 2022</t>
+  </si>
+  <si>
+    <t>1- 442.000 ₺
+2- 446.900 ₺</t>
+  </si>
+  <si>
+    <t>1.189.000 ₺</t>
+  </si>
+  <si>
+    <t>329.298 ₺</t>
+  </si>
+  <si>
+    <t>424.680 ₺</t>
+  </si>
+  <si>
+    <t>634.000 ₺</t>
+  </si>
+  <si>
+    <t>870.000 ₺</t>
+  </si>
+  <si>
+    <t>971.400 ₺</t>
+  </si>
+  <si>
+    <t>768.200 ₺</t>
+  </si>
+  <si>
+    <t>613.800 ₺</t>
+  </si>
+  <si>
+    <t>1.259.900 ₺</t>
+  </si>
+  <si>
+    <t>453.121 ₺</t>
+  </si>
+  <si>
+    <t>803.500 ₺</t>
+  </si>
+  <si>
+    <t>1.195.000 ₺</t>
+  </si>
+  <si>
+    <t>695.000 ₺</t>
+  </si>
+  <si>
+    <t>1.059.500 ₺</t>
+  </si>
+  <si>
+    <t>1.290.500 ₺</t>
+  </si>
+  <si>
+    <t>641.500 ₺</t>
+  </si>
+  <si>
+    <t>933.400 ₺</t>
+  </si>
+  <si>
+    <t>466.000 ₺</t>
+  </si>
+  <si>
+    <t>862.000 ₺</t>
+  </si>
+  <si>
+    <t>1.021.700 ₺</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2152,14 +2213,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2197,6 +2262,9 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2336,7 +2404,7 @@
     <tableColumn id="7" xr3:uid="{8D25E908-E966-4737-B96F-19B2460D5606}" name="Engine"/>
     <tableColumn id="8" xr3:uid="{1DF695D1-C61C-42D7-8E30-09D1D7E914F4}" name="Fuel Efficiency"/>
     <tableColumn id="9" xr3:uid="{A13B7561-DE3C-4B45-AAAC-1577A9D810F4}" name="Gearbox "/>
-    <tableColumn id="10" xr3:uid="{48AD2499-694D-4229-A06D-9F13376A798E}" name="Ncap Results" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{48AD2499-694D-4229-A06D-9F13376A798E}" name="Ncap Results" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{6148C0D3-952D-4C6E-ADA6-F4C04123FD50}" name="Price"/>
     <tableColumn id="12" xr3:uid="{E9F19F9A-A212-48FA-B854-312DC843EAD6}" name="Segment"/>
     <tableColumn id="13" xr3:uid="{56D5E1F8-1FDB-445D-8B49-BB177E755D80}" name="Weight"/>
@@ -2347,10 +2415,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6EE3F9D9-B11B-4C7D-A428-6CE7160895A7}" name="Table3" displayName="Table3" ref="A1:E12" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6EE3F9D9-B11B-4C7D-A428-6CE7160895A7}" name="Table3" displayName="Table3" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:E12" xr:uid="{6EE3F9D9-B11B-4C7D-A428-6CE7160895A7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{540AF3EF-D3D7-49D7-8585-971156B0EA4C}" name="Value / Criteria" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{540AF3EF-D3D7-49D7-8585-971156B0EA4C}" name="Value / Criteria" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{F6710048-37D8-471C-808B-68E5A2EDF978}" name="Baggage Size"/>
     <tableColumn id="3" xr3:uid="{C41F8C34-080C-4FCE-9F57-CB9E6AEF6A64}" name="Fuel Efficiency"/>
     <tableColumn id="4" xr3:uid="{78780D29-113F-4DC4-8EAF-1055F5C8F7A9}" name="Performance Value"/>
@@ -3198,8 +3266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F9C091-4D40-4D94-8285-6B49AFA4EACD}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3276,7 +3344,7 @@
         <v>166</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>165</v>
@@ -3285,7 +3353,7 @@
         <v>169</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>170</v>
@@ -3317,7 +3385,7 @@
         <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G3" t="s">
         <v>181</v>
@@ -3326,7 +3394,7 @@
         <v>169</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J3" t="s">
         <v>175</v>
@@ -3358,16 +3426,16 @@
         <v>179</v>
       </c>
       <c r="F4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H4" t="s">
         <v>169</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J4" t="s">
         <v>182</v>
@@ -3399,7 +3467,7 @@
         <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>186</v>
@@ -3408,7 +3476,7 @@
         <v>169</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>189</v>
@@ -3428,19 +3496,19 @@
         <v>83</v>
       </c>
       <c r="B6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C6" t="s">
         <v>488</v>
-      </c>
-      <c r="C6" t="s">
-        <v>489</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G6" t="s">
         <v>279</v>
@@ -3449,7 +3517,7 @@
         <v>169</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J6" t="s">
         <v>204</v>
@@ -3458,7 +3526,7 @@
         <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M6" t="s">
         <v>202</v>
@@ -3481,7 +3549,7 @@
         <v>196</v>
       </c>
       <c r="F7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G7" t="s">
         <v>195</v>
@@ -3490,7 +3558,7 @@
         <v>169</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J7" t="s">
         <v>205</v>
@@ -3522,7 +3590,7 @@
         <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G8" t="s">
         <v>201</v>
@@ -3531,7 +3599,7 @@
         <v>169</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J8" t="s">
         <v>206</v>
@@ -3572,7 +3640,7 @@
         <v>169</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J9" t="s">
         <v>214</v>
@@ -3613,7 +3681,7 @@
         <v>169</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J10" t="s">
         <v>221</v>
@@ -3625,7 +3693,7 @@
         <v>216</v>
       </c>
       <c r="M10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -3654,7 +3722,7 @@
         <v>169</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>230</v>
@@ -3695,7 +3763,7 @@
         <v>169</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>239</v>
@@ -3736,7 +3804,7 @@
         <v>169</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J13" t="s">
         <v>245</v>
@@ -3777,7 +3845,7 @@
         <v>169</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J14" t="s">
         <v>250</v>
@@ -3818,7 +3886,7 @@
         <v>288</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>258</v>
@@ -3827,7 +3895,7 @@
         <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>412</v>
@@ -3859,7 +3927,7 @@
         <v>367</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>265</v>
@@ -3900,7 +3968,7 @@
         <v>169</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J17" t="s">
         <v>272</v>
@@ -3941,7 +4009,7 @@
         <v>289</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J18" t="s">
         <v>278</v>
@@ -3982,7 +4050,7 @@
         <v>288</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>283</v>
@@ -4002,37 +4070,40 @@
         <v>93</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>373</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>289</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>602</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -4043,25 +4114,25 @@
         <v>291</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>284</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>287</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>290</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>286</v>
@@ -4070,10 +4141,10 @@
         <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -4081,10 +4152,10 @@
         <v>95</v>
       </c>
       <c r="B22" t="s">
+        <v>503</v>
+      </c>
+      <c r="C22" t="s">
         <v>504</v>
-      </c>
-      <c r="C22" t="s">
-        <v>505</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -4093,7 +4164,7 @@
         <v>292</v>
       </c>
       <c r="F22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G22" t="s">
         <v>293</v>
@@ -4102,7 +4173,7 @@
         <v>289</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J22" t="s">
         <v>294</v>
@@ -4111,7 +4182,7 @@
         <v>56</v>
       </c>
       <c r="L22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M22" t="s">
         <v>369</v>
@@ -4122,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C23" t="s">
         <v>298</v>
@@ -4131,10 +4202,10 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G23" t="s">
         <v>375</v>
@@ -4143,7 +4214,7 @@
         <v>289</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J23" t="s">
         <v>295</v>
@@ -4152,10 +4223,10 @@
         <v>57</v>
       </c>
       <c r="L23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4184,7 +4255,7 @@
         <v>169</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J24" t="s">
         <v>299</v>
@@ -4225,7 +4296,10 @@
         <v>169</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
+      </c>
+      <c r="J25" t="s">
+        <v>603</v>
       </c>
       <c r="K25" t="s">
         <v>69</v>
@@ -4242,37 +4316,40 @@
         <v>99</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>458</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>604</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -4280,7 +4357,7 @@
         <v>100</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>474</v>
@@ -4289,25 +4366,28 @@
         <v>17</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>537</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>458</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>605</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>404</v>
@@ -4318,37 +4398,40 @@
         <v>309</v>
       </c>
       <c r="B28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H28" t="s">
         <v>289</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
+      </c>
+      <c r="J28" t="s">
+        <v>606</v>
       </c>
       <c r="K28" t="s">
         <v>57</v>
       </c>
       <c r="L28" t="s">
+        <v>543</v>
+      </c>
+      <c r="M28" t="s">
         <v>544</v>
-      </c>
-      <c r="M28" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -4356,37 +4439,40 @@
         <v>101</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E29" t="s">
+        <v>548</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>169</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
+      </c>
+      <c r="J29" t="s">
+        <v>607</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>57</v>
       </c>
       <c r="L29" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -4403,19 +4489,19 @@
         <v>17</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>326</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>169</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>315</v>
@@ -4444,19 +4530,19 @@
         <v>18</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>325</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>169</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>320</v>
@@ -4485,19 +4571,19 @@
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F32" t="s">
         <v>324</v>
       </c>
       <c r="G32" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H32" t="s">
         <v>169</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J32" t="s">
         <v>323</v>
@@ -4526,19 +4612,19 @@
         <v>20</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>329</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>169</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>333</v>
@@ -4579,7 +4665,7 @@
         <v>169</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J34" t="s">
         <v>337</v>
@@ -4620,7 +4706,10 @@
         <v>289</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
+      </c>
+      <c r="J35" t="s">
+        <v>609</v>
       </c>
       <c r="K35" t="s">
         <v>56</v>
@@ -4658,7 +4747,10 @@
         <v>169</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
+      </c>
+      <c r="J36" t="s">
+        <v>610</v>
       </c>
       <c r="K36" t="s">
         <v>56</v>
@@ -4696,7 +4788,10 @@
         <v>289</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
+      </c>
+      <c r="J37" t="s">
+        <v>608</v>
       </c>
       <c r="K37" t="s">
         <v>57</v>
@@ -4734,7 +4829,7 @@
         <v>367</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>353</v>
@@ -4775,7 +4870,10 @@
         <v>169</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
+      </c>
+      <c r="J39" t="s">
+        <v>611</v>
       </c>
       <c r="K39" t="s">
         <v>69</v>
@@ -4813,7 +4911,10 @@
         <v>367</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>612</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>56</v>
@@ -4851,7 +4952,10 @@
         <v>169</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
+      </c>
+      <c r="J41" t="s">
+        <v>613</v>
       </c>
       <c r="K41" t="s">
         <v>57</v>
@@ -4889,7 +4993,10 @@
         <v>169</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>614</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>69</v>
@@ -4927,7 +5034,10 @@
         <v>288</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>615</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>56</v>
@@ -4965,7 +5075,10 @@
         <v>169</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>616</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>57</v>
@@ -5003,7 +5116,10 @@
         <v>169</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
+      </c>
+      <c r="J45" t="s">
+        <v>617</v>
       </c>
       <c r="K45" t="s">
         <v>70</v>
@@ -5041,7 +5157,7 @@
         <v>169</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J46" t="s">
         <v>419</v>
@@ -5082,7 +5198,7 @@
         <v>288</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>420</v>
@@ -5123,7 +5239,7 @@
         <v>169</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J48" t="s">
         <v>421</v>
@@ -5164,7 +5280,7 @@
         <v>289</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J49" t="s">
         <v>422</v>
@@ -5205,7 +5321,7 @@
         <v>288</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>423</v>
@@ -5246,7 +5362,7 @@
         <v>367</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>435</v>
@@ -5287,7 +5403,7 @@
         <v>169</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>436</v>
@@ -5328,7 +5444,7 @@
         <v>169</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>448</v>
@@ -5340,7 +5456,7 @@
         <v>441</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -5351,7 +5467,7 @@
         <v>443</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>18</v>
@@ -5369,7 +5485,7 @@
         <v>169</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>449</v>
@@ -5410,7 +5526,7 @@
         <v>169</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>452</v>
@@ -5451,7 +5567,10 @@
         <v>458</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>618</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>57</v>
@@ -5489,7 +5608,10 @@
         <v>169</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>619</v>
       </c>
       <c r="K57" t="s">
         <v>69</v>
@@ -5527,7 +5649,10 @@
         <v>472</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>620</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>56</v>
@@ -5565,7 +5690,10 @@
         <v>169</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>621</v>
       </c>
       <c r="K59" t="s">
         <v>56</v>
@@ -5603,7 +5731,10 @@
         <v>169</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
+      </c>
+      <c r="J60" t="s">
+        <v>622</v>
       </c>
       <c r="K60" t="s">
         <v>57</v>
@@ -5612,7 +5743,7 @@
         <v>482</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.35">
@@ -5626,7 +5757,7 @@
         <v>169</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J61" t="s">
         <v>485</v>
@@ -5646,7 +5777,7 @@
         <v>169</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J62" t="s">
         <v>486</v>
@@ -5666,10 +5797,10 @@
         <v>169</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J63" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K63" t="s">
         <v>69</v>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmu\Documents\Projects\Which Car\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7691F1-9B6D-4A02-8528-F6E77013C36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FC228D-5FF8-49D0-8673-0D47E47228A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3B4BDF85-B6F6-4055-99A3-4008C0DAF8C5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="641">
   <si>
     <t>Audi</t>
   </si>
@@ -2115,13 +2115,67 @@
   </si>
   <si>
     <t>1.021.700 ₺</t>
+  </si>
+  <si>
+    <t>2.0 / 250 hp / 350 Nm</t>
+  </si>
+  <si>
+    <t>1703 kg</t>
+  </si>
+  <si>
+    <t>7.3 sn</t>
+  </si>
+  <si>
+    <t>6.7 sn</t>
+  </si>
+  <si>
+    <t>1.5 / 250 hp / 350 Nm</t>
+  </si>
+  <si>
+    <t>1800 kg</t>
+  </si>
+  <si>
+    <t>7.0 sn</t>
+  </si>
+  <si>
+    <t>6.5 lt</t>
+  </si>
+  <si>
+    <t>6 lt</t>
+  </si>
+  <si>
+    <t>149 g/km</t>
+  </si>
+  <si>
+    <t>145 g/km</t>
+  </si>
+  <si>
+    <t>165 g/km</t>
+  </si>
+  <si>
+    <t>1890 kg</t>
+  </si>
+  <si>
+    <t>470 lt</t>
+  </si>
+  <si>
+    <t>245/45/18</t>
+  </si>
+  <si>
+    <t>235/65/17</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Security</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2149,6 +2203,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2393,9 +2453,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}" name="Table2" displayName="Table2" ref="A1:M63" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:M63" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}" name="Table2" displayName="Table2" ref="A1:O63" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:O63" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{AE6F8509-6BCD-4252-BFBF-F091B627B085}" name="Brand / Detail" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{8225C3C3-D29B-4D29-832A-AE7CDD214436}" name="Acceleration"/>
     <tableColumn id="3" xr3:uid="{5BC1ABE1-F747-4FF1-9DAE-C933BB65DF94}" name="Baggage Size"/>
@@ -2409,6 +2469,8 @@
     <tableColumn id="12" xr3:uid="{E9F19F9A-A212-48FA-B854-312DC843EAD6}" name="Segment"/>
     <tableColumn id="13" xr3:uid="{56D5E1F8-1FDB-445D-8B49-BB177E755D80}" name="Weight"/>
     <tableColumn id="14" xr3:uid="{37032693-75B2-48DD-B595-1785186FBDC5}" name="Wheel Dimensions"/>
+    <tableColumn id="5" xr3:uid="{43909C37-F65C-4970-9DA6-3E159998AEE9}" name="Performance"/>
+    <tableColumn id="15" xr3:uid="{5D98FB41-6E94-4933-9367-3DDEA693CD2F}" name="Security"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3264,10 +3326,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F9C091-4D40-4D94-8285-6B49AFA4EACD}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3283,10 +3345,10 @@
     <col min="11" max="11" width="18.77734375" customWidth="1"/>
     <col min="12" max="12" width="18.88671875" customWidth="1"/>
     <col min="13" max="13" width="18.77734375" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" customWidth="1"/>
+    <col min="14" max="15" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>78</v>
       </c>
@@ -3326,8 +3388,14 @@
       <c r="M1" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N1" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>79</v>
       </c>
@@ -3368,7 +3436,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>80</v>
       </c>
@@ -3409,7 +3477,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
@@ -3450,7 +3518,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>82</v>
       </c>
@@ -3491,7 +3559,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>83</v>
       </c>
@@ -3532,7 +3600,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
@@ -3573,7 +3641,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -3614,7 +3682,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>208</v>
       </c>
@@ -3655,7 +3723,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>215</v>
       </c>
@@ -3696,7 +3764,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>222</v>
       </c>
@@ -3737,7 +3805,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>231</v>
       </c>
@@ -3778,7 +3846,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
@@ -3819,7 +3887,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>87</v>
       </c>
@@ -3860,7 +3928,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>89</v>
       </c>
@@ -3901,7 +3969,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>88</v>
       </c>
@@ -5750,9 +5818,24 @@
       <c r="A61" s="5" t="s">
         <v>134</v>
       </c>
+      <c r="B61" t="s">
+        <v>626</v>
+      </c>
+      <c r="C61" t="s">
+        <v>274</v>
+      </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
+      <c r="E61" t="s">
+        <v>634</v>
+      </c>
+      <c r="F61" t="s">
+        <v>623</v>
+      </c>
+      <c r="G61" t="s">
+        <v>308</v>
+      </c>
       <c r="H61" t="s">
         <v>169</v>
       </c>
@@ -5764,15 +5847,36 @@
       </c>
       <c r="K61" t="s">
         <v>70</v>
+      </c>
+      <c r="L61" t="s">
+        <v>624</v>
+      </c>
+      <c r="M61" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>135</v>
       </c>
+      <c r="B62" t="s">
+        <v>625</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
       <c r="D62" t="s">
         <v>19</v>
       </c>
+      <c r="E62" t="s">
+        <v>633</v>
+      </c>
+      <c r="F62" t="s">
+        <v>627</v>
+      </c>
+      <c r="G62" t="s">
+        <v>631</v>
+      </c>
       <c r="H62" t="s">
         <v>169</v>
       </c>
@@ -5784,15 +5888,36 @@
       </c>
       <c r="K62" t="s">
         <v>57</v>
+      </c>
+      <c r="L62" t="s">
+        <v>628</v>
+      </c>
+      <c r="M62" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>136</v>
       </c>
+      <c r="B63" t="s">
+        <v>629</v>
+      </c>
+      <c r="C63" t="s">
+        <v>636</v>
+      </c>
       <c r="D63" t="s">
         <v>19</v>
       </c>
+      <c r="E63" t="s">
+        <v>632</v>
+      </c>
+      <c r="F63" t="s">
+        <v>623</v>
+      </c>
+      <c r="G63" t="s">
+        <v>630</v>
+      </c>
       <c r="H63" t="s">
         <v>169</v>
       </c>
@@ -5805,8 +5930,15 @@
       <c r="K63" t="s">
         <v>69</v>
       </c>
+      <c r="L63" t="s">
+        <v>635</v>
+      </c>
+      <c r="M63" t="s">
+        <v>638</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahmu\Documents\Projects\Which Car\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FC228D-5FF8-49D0-8673-0D47E47228A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB893428-0040-41CA-B12C-E3B630DE0173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3B4BDF85-B6F6-4055-99A3-4008C0DAF8C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{3B4BDF85-B6F6-4055-99A3-4008C0DAF8C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Brand-Model" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="668">
   <si>
     <t>Audi</t>
   </si>
@@ -820,10 +820,6 @@
   </si>
   <si>
     <t>7.0 lt</t>
-  </si>
-  <si>
-    <t>1- 1.2 / 83 hp / 120 Nm (A)
-2- 1.2 / 110 hp / 205 Nm</t>
   </si>
   <si>
     <t>1- 13.3 sn
@@ -1564,11 +1560,6 @@
 3- 215/60/17</t>
   </si>
   <si>
-    <t>1- 1.8 / 120 hp / 140 Nm
-2- 1.8 / 120 hp / 140 Nm
-3- 1.8 / 140 hp / 140 Nm</t>
-  </si>
-  <si>
     <t>1- 1.0 / 110 hp / 200 Nm
 2- 1.5 / 150 hp / 250 Nm</t>
   </si>
@@ -2165,10 +2156,134 @@
     <t>235/65/17</t>
   </si>
   <si>
-    <t>Performance</t>
-  </si>
-  <si>
     <t>Security</t>
+  </si>
+  <si>
+    <t>Performance (hp/kg)</t>
+  </si>
+  <si>
+    <t>1- 0.101
+2- 0.081</t>
+  </si>
+  <si>
+    <t>1- 0.144
+2- 0.179</t>
+  </si>
+  <si>
+    <t>1- 0.105
+2- 0.160</t>
+  </si>
+  <si>
+    <t>1- 0.102
+2- 0.142</t>
+  </si>
+  <si>
+    <t>1- 1.2 / 85 hp / 120 Nm (A)
+2- 1.2 / 110 hp / 205 Nm</t>
+  </si>
+  <si>
+    <t>1- 0.077
+2- 0.087</t>
+  </si>
+  <si>
+    <t>1- 0.082
+2- 0.102
+3- 0.121</t>
+  </si>
+  <si>
+    <t>1- 0.071
+2- 0.112</t>
+  </si>
+  <si>
+    <t>1- 0.077
+2- 0.075</t>
+  </si>
+  <si>
+    <t>1- 0.086
+2- 0.100
+3- 0.074</t>
+  </si>
+  <si>
+    <t>1- 0.065
+2- 0.084</t>
+  </si>
+  <si>
+    <t>1- 0.088
+2- 0.085</t>
+  </si>
+  <si>
+    <t>1- 0.116
+2- 0.253</t>
+  </si>
+  <si>
+    <t>1- 0.117
+2- 0.217</t>
+  </si>
+  <si>
+    <t>1- 0.105
+2- 0.247</t>
+  </si>
+  <si>
+    <t>1- 0.071
+2- 0.085
+3- 0.105</t>
+  </si>
+  <si>
+    <t>1- 0.076
+2- 0.091
+3- 0.112</t>
+  </si>
+  <si>
+    <t>1- 0.126
+2- 0.158</t>
+  </si>
+  <si>
+    <t>1- 0.098
+2- 0.125</t>
+  </si>
+  <si>
+    <t>1- 0.083
+2- 0.107</t>
+  </si>
+  <si>
+    <t>1- 0.058
+2- 0.076</t>
+  </si>
+  <si>
+    <t>1- 0.077
+2- 0.099
+3- 0.129</t>
+  </si>
+  <si>
+    <t>1- 0.087
+2- 0.116</t>
+  </si>
+  <si>
+    <t>1- 0.086
+2- 0.117
+3- 0.132</t>
+  </si>
+  <si>
+    <t>1- 0.108
+2- 0.123</t>
+  </si>
+  <si>
+    <t>1- 0.100
+2- 0.093
+3- 0.101</t>
+  </si>
+  <si>
+    <t>1- 0.084
+2- 0.109</t>
+  </si>
+  <si>
+    <t>1- 0.070
+2- 0.081</t>
+  </si>
+  <si>
+    <t>1- 1.8 / 120 hp / 140 Nm (A)
+2- 1.8 / 120 hp / 140 Nm (A)
+3- 1.8 / 140 hp / 140 Nm (A)</t>
   </si>
 </sst>
 </file>
@@ -2284,7 +2399,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2402,10 +2520,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B644345E-AE9A-4D52-90BE-423D511E9041}" name="Table26" displayName="Table26" ref="A1:D19" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B644345E-AE9A-4D52-90BE-423D511E9041}" name="Table26" displayName="Table26" ref="A1:D19" headerRowDxfId="11">
   <autoFilter ref="A1:D19" xr:uid="{B644345E-AE9A-4D52-90BE-423D511E9041}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{505A9955-DE8D-41AF-8C1B-14991DB9BD68}" name="Brand / Type" totalsRowLabel="Total" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{505A9955-DE8D-41AF-8C1B-14991DB9BD68}" name="Brand / Type" totalsRowLabel="Total" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{63963C1F-F34E-4D79-BC00-59FA655F49B2}" name="Hatchback"/>
     <tableColumn id="3" xr3:uid="{B5E7656B-5155-445F-9633-EDD5B4E1CF20}" name="Sedan"/>
     <tableColumn id="4" xr3:uid="{14D18755-A730-49F1-A4E5-76DAD0033DB0}" name="SUV" totalsRowFunction="count"/>
@@ -2415,7 +2533,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78612532-9585-4A00-8DB4-111100844320}" name="Table37" displayName="Table37" ref="E1:E19" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78612532-9585-4A00-8DB4-111100844320}" name="Table37" displayName="Table37" ref="E1:E19" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="E1:E19" xr:uid="{78612532-9585-4A00-8DB4-111100844320}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{CD5B4547-99DC-4A2C-AE45-5C80503FAF10}" name="Coupe"/>
@@ -2425,10 +2543,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2CFE93AB-7EB8-4570-9A65-AF77ABD6A551}" name="Table1" displayName="Table1" ref="A1:S6" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2CFE93AB-7EB8-4570-9A65-AF77ABD6A551}" name="Table1" displayName="Table1" ref="A1:S6" headerRowDxfId="8">
   <autoFilter ref="A1:S6" xr:uid="{2CFE93AB-7EB8-4570-9A65-AF77ABD6A551}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0781B8B5-0012-41DB-BF9E-191DE9E1EB15}" name="Segments / Cars" totalsRowLabel="Total" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{0781B8B5-0012-41DB-BF9E-191DE9E1EB15}" name="Segments / Cars" totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="2" xr3:uid="{AC7C027D-4A1F-434A-A962-7F638DC90E4D}" name="Audi"/>
     <tableColumn id="3" xr3:uid="{C35063A0-1D76-4CE7-B172-DA0A14DFE853}" name="BMW"/>
     <tableColumn id="4" xr3:uid="{5D47B387-E003-485A-9B74-6286AFB86E53}" name="Citroën"/>
@@ -2453,10 +2571,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}" name="Table2" displayName="Table2" ref="A1:O63" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}" name="Table2" displayName="Table2" ref="A1:O63" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:O63" xr:uid="{6178774D-ADEA-4BF1-B8F4-495DAC76B403}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{AE6F8509-6BCD-4252-BFBF-F091B627B085}" name="Brand / Detail" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{AE6F8509-6BCD-4252-BFBF-F091B627B085}" name="Brand / Detail" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{8225C3C3-D29B-4D29-832A-AE7CDD214436}" name="Acceleration"/>
     <tableColumn id="3" xr3:uid="{5BC1ABE1-F747-4FF1-9DAE-C933BB65DF94}" name="Baggage Size"/>
     <tableColumn id="4" xr3:uid="{EC49E71E-E65A-4CD4-8207-1EFFA2153AA1}" name="Chassis Type"/>
@@ -2464,12 +2582,12 @@
     <tableColumn id="7" xr3:uid="{8D25E908-E966-4737-B96F-19B2460D5606}" name="Engine"/>
     <tableColumn id="8" xr3:uid="{1DF695D1-C61C-42D7-8E30-09D1D7E914F4}" name="Fuel Efficiency"/>
     <tableColumn id="9" xr3:uid="{A13B7561-DE3C-4B45-AAAC-1577A9D810F4}" name="Gearbox "/>
-    <tableColumn id="10" xr3:uid="{48AD2499-694D-4229-A06D-9F13376A798E}" name="Ncap Results" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{48AD2499-694D-4229-A06D-9F13376A798E}" name="Ncap Results" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{6148C0D3-952D-4C6E-ADA6-F4C04123FD50}" name="Price"/>
     <tableColumn id="12" xr3:uid="{E9F19F9A-A212-48FA-B854-312DC843EAD6}" name="Segment"/>
     <tableColumn id="13" xr3:uid="{56D5E1F8-1FDB-445D-8B49-BB177E755D80}" name="Weight"/>
     <tableColumn id="14" xr3:uid="{37032693-75B2-48DD-B595-1785186FBDC5}" name="Wheel Dimensions"/>
-    <tableColumn id="5" xr3:uid="{43909C37-F65C-4970-9DA6-3E159998AEE9}" name="Performance"/>
+    <tableColumn id="5" xr3:uid="{43909C37-F65C-4970-9DA6-3E159998AEE9}" name="Performance (hp/kg)" dataDxfId="0"/>
     <tableColumn id="15" xr3:uid="{5D98FB41-6E94-4933-9367-3DDEA693CD2F}" name="Security"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2477,10 +2595,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6EE3F9D9-B11B-4C7D-A428-6CE7160895A7}" name="Table3" displayName="Table3" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6EE3F9D9-B11B-4C7D-A428-6CE7160895A7}" name="Table3" displayName="Table3" ref="A1:E12" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:E12" xr:uid="{6EE3F9D9-B11B-4C7D-A428-6CE7160895A7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{540AF3EF-D3D7-49D7-8585-971156B0EA4C}" name="Value / Criteria" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{540AF3EF-D3D7-49D7-8585-971156B0EA4C}" name="Value / Criteria" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{F6710048-37D8-471C-808B-68E5A2EDF978}" name="Baggage Size"/>
     <tableColumn id="3" xr3:uid="{C41F8C34-080C-4FCE-9F57-CB9E6AEF6A64}" name="Fuel Efficiency"/>
     <tableColumn id="4" xr3:uid="{78780D29-113F-4DC4-8EAF-1055F5C8F7A9}" name="Performance Value"/>
@@ -2875,7 +2993,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2981,7 +3099,7 @@
         <v>508</v>
       </c>
       <c r="D13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3328,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F9C091-4D40-4D94-8285-6B49AFA4EACD}">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3345,7 +3463,8 @@
     <col min="11" max="11" width="18.77734375" customWidth="1"/>
     <col min="12" max="12" width="18.88671875" customWidth="1"/>
     <col min="13" max="13" width="18.77734375" customWidth="1"/>
-    <col min="14" max="15" width="20.77734375" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -3388,11 +3507,11 @@
       <c r="M1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>639</v>
+      <c r="N1" s="14" t="s">
+        <v>638</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -3412,7 +3531,7 @@
         <v>166</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>165</v>
@@ -3421,7 +3540,7 @@
         <v>169</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>170</v>
@@ -3434,6 +3553,9 @@
       </c>
       <c r="M2" s="9" t="s">
         <v>168</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -3453,7 +3575,7 @@
         <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G3" t="s">
         <v>181</v>
@@ -3462,7 +3584,7 @@
         <v>169</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J3" t="s">
         <v>175</v>
@@ -3475,6 +3597,9 @@
       </c>
       <c r="M3" t="s">
         <v>174</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -3494,16 +3619,16 @@
         <v>179</v>
       </c>
       <c r="F4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H4" t="s">
         <v>169</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J4" t="s">
         <v>182</v>
@@ -3516,6 +3641,9 @@
       </c>
       <c r="M4" t="s">
         <v>174</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -3535,7 +3663,7 @@
         <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>186</v>
@@ -3544,7 +3672,7 @@
         <v>169</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>189</v>
@@ -3557,6 +3685,9 @@
       </c>
       <c r="M5" s="8" t="s">
         <v>188</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -3564,28 +3695,28 @@
         <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H6" t="s">
         <v>169</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J6" t="s">
         <v>204</v>
@@ -3594,10 +3725,13 @@
         <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M6" t="s">
         <v>202</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -3617,7 +3751,7 @@
         <v>196</v>
       </c>
       <c r="F7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G7" t="s">
         <v>195</v>
@@ -3626,7 +3760,7 @@
         <v>169</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J7" t="s">
         <v>205</v>
@@ -3639,6 +3773,9 @@
       </c>
       <c r="M7" t="s">
         <v>202</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -3658,7 +3795,7 @@
         <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G8" t="s">
         <v>201</v>
@@ -3667,7 +3804,7 @@
         <v>169</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J8" t="s">
         <v>206</v>
@@ -3680,6 +3817,9 @@
       </c>
       <c r="M8" t="s">
         <v>203</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.157</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -3708,7 +3848,7 @@
         <v>169</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J9" t="s">
         <v>214</v>
@@ -3721,6 +3861,9 @@
       </c>
       <c r="M9" t="s">
         <v>213</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -3749,7 +3892,7 @@
         <v>169</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J10" t="s">
         <v>221</v>
@@ -3761,7 +3904,10 @@
         <v>216</v>
       </c>
       <c r="M10" t="s">
-        <v>552</v>
+        <v>550</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.106</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -3790,7 +3936,7 @@
         <v>169</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>230</v>
@@ -3803,6 +3949,9 @@
       </c>
       <c r="M11" s="8" t="s">
         <v>226</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -3831,7 +3980,7 @@
         <v>169</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>239</v>
@@ -3844,6 +3993,9 @@
       </c>
       <c r="M12" s="8" t="s">
         <v>233</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -3872,7 +4024,7 @@
         <v>169</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J13" t="s">
         <v>245</v>
@@ -3885,6 +4037,9 @@
       </c>
       <c r="M13" t="s">
         <v>244</v>
+      </c>
+      <c r="N13" s="2">
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -3913,7 +4068,7 @@
         <v>169</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J14" t="s">
         <v>250</v>
@@ -3926,6 +4081,9 @@
       </c>
       <c r="M14" t="s">
         <v>249</v>
+      </c>
+      <c r="N14" s="2">
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -3933,40 +4091,43 @@
         <v>89</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -3974,7 +4135,7 @@
         <v>88</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>162</v>
@@ -3983,121 +4144,130 @@
         <v>17</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H17" t="s">
         <v>169</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K17" t="s">
         <v>69</v>
       </c>
       <c r="L17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M17" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N17" s="2">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" t="s">
+        <v>288</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="J18" t="s">
         <v>277</v>
-      </c>
-      <c r="F18" t="s">
-        <v>266</v>
-      </c>
-      <c r="G18" t="s">
-        <v>276</v>
-      </c>
-      <c r="H18" t="s">
-        <v>289</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="J18" t="s">
-        <v>278</v>
       </c>
       <c r="K18" t="s">
         <v>56</v>
       </c>
       <c r="L18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M18" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>217</v>
@@ -4109,195 +4279,210 @@
         <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>57</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="F20" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>495</v>
-      </c>
       <c r="H20" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>499</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="E22" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" t="s">
+        <v>505</v>
+      </c>
+      <c r="G22" t="s">
         <v>292</v>
       </c>
-      <c r="F22" t="s">
-        <v>507</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>288</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="J22" t="s">
         <v>293</v>
-      </c>
-      <c r="H22" t="s">
-        <v>289</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="J22" t="s">
-        <v>294</v>
       </c>
       <c r="K22" t="s">
         <v>56</v>
       </c>
       <c r="L22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M22" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K23" t="s">
         <v>57</v>
       </c>
       <c r="L23" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M23" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+      <c r="N23" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>97</v>
       </c>
@@ -4305,332 +4490,356 @@
         <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H24" t="s">
         <v>169</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K24" t="s">
         <v>57</v>
       </c>
       <c r="L24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
       <c r="E25" t="s">
+        <v>306</v>
+      </c>
+      <c r="F25" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" t="s">
         <v>307</v>
-      </c>
-      <c r="F25" t="s">
-        <v>303</v>
-      </c>
-      <c r="G25" t="s">
-        <v>308</v>
       </c>
       <c r="H25" t="s">
         <v>169</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J25" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K25" t="s">
         <v>69</v>
       </c>
       <c r="L25" t="s">
+        <v>303</v>
+      </c>
+      <c r="M25" t="s">
         <v>304</v>
       </c>
-      <c r="M25" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N25" s="2">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>530</v>
-      </c>
       <c r="H26" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>100</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B28" t="s">
         <v>537</v>
       </c>
-      <c r="M27" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B28" t="s">
-        <v>539</v>
-      </c>
       <c r="C28" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F28" t="s">
+        <v>536</v>
+      </c>
+      <c r="G28" t="s">
         <v>538</v>
       </c>
-      <c r="G28" t="s">
-        <v>540</v>
-      </c>
       <c r="H28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J28" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K28" t="s">
         <v>57</v>
       </c>
       <c r="L28" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M28" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>542</v>
+      </c>
+      <c r="N28" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E29" t="s">
+        <v>546</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>169</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>57</v>
       </c>
       <c r="L29" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>169</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>57</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>169</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>69</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C32" t="s">
         <v>240</v>
@@ -4639,39 +4848,42 @@
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G32" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H32" t="s">
         <v>169</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K32" t="s">
         <v>70</v>
       </c>
       <c r="L32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>171</v>
@@ -4680,157 +4892,169 @@
         <v>20</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>169</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G34" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H34" t="s">
         <v>169</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K34" t="s">
         <v>57</v>
       </c>
       <c r="L34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M34" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C35" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J35" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K35" t="s">
         <v>56</v>
       </c>
       <c r="L35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M35" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+      <c r="N35" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H36" t="s">
         <v>169</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J36" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K36" t="s">
         <v>56</v>
       </c>
       <c r="L36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M36" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+      <c r="N36" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>109</v>
       </c>
@@ -4847,282 +5071,303 @@
         <v>243</v>
       </c>
       <c r="F37" t="s">
+        <v>349</v>
+      </c>
+      <c r="G37" t="s">
         <v>350</v>
       </c>
-      <c r="G37" t="s">
-        <v>351</v>
-      </c>
       <c r="H37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J37" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K37" t="s">
         <v>57</v>
       </c>
       <c r="L37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M37" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>110</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="H38" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H39" t="s">
         <v>169</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J39" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K39" t="s">
         <v>69</v>
       </c>
       <c r="L39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M39" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+      <c r="N39" s="2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="H40" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C41" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H41" t="s">
         <v>169</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="J41" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K41" t="s">
         <v>57</v>
       </c>
       <c r="L41" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M41" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N41" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>169</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>69</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>114</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>193</v>
@@ -5131,75 +5376,81 @@
         <v>19</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>169</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>57</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N44" s="15" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H45" t="s">
         <v>169</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J45" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="K45" t="s">
         <v>70</v>
       </c>
       <c r="L45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M45" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N45" s="2">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>119</v>
       </c>
@@ -5207,86 +5458,92 @@
         <v>242</v>
       </c>
       <c r="C46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H46" t="s">
         <v>169</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J46" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K46" t="s">
         <v>56</v>
       </c>
       <c r="L46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M46" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="H47" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+      <c r="N47" s="15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C48" t="s">
         <v>232</v>
@@ -5295,162 +5552,174 @@
         <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H48" t="s">
         <v>169</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K48" t="s">
         <v>57</v>
       </c>
       <c r="L48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M48" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>407</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F49" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K49" t="s">
         <v>57</v>
       </c>
       <c r="L49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M49" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>415</v>
-      </c>
       <c r="H50" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+      <c r="N51" s="15" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>162</v>
@@ -5459,162 +5728,174 @@
         <v>17</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>169</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>57</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N52" s="15" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>169</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>57</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+      <c r="N53" s="15" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>169</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>69</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>128</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>456</v>
+        <v>667</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>169</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>57</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>162</v>
@@ -5623,157 +5904,169 @@
         <v>17</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>57</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N56" s="15" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
         <v>130</v>
       </c>
       <c r="B57" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G57" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>169</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K57" t="s">
         <v>69</v>
       </c>
       <c r="L57" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N57" s="2">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>131</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C59" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F59" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G59" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H59" t="s">
         <v>169</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K59" t="s">
         <v>56</v>
       </c>
       <c r="L59" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N59" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>133</v>
       </c>
@@ -5781,86 +6074,92 @@
         <v>242</v>
       </c>
       <c r="C60" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F60" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G60" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H60" t="s">
         <v>169</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J60" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="K60" t="s">
         <v>57</v>
       </c>
       <c r="L60" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>553</v>
+      </c>
+      <c r="N60" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B61" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F61" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H61" t="s">
         <v>169</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J61" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K61" t="s">
         <v>70</v>
       </c>
       <c r="L61" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="M61" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>635</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C62" t="s">
         <v>177</v>
@@ -5869,72 +6168,78 @@
         <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F62" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G62" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H62" t="s">
         <v>169</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J62" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K62" t="s">
         <v>57</v>
       </c>
       <c r="L62" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="M62" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+        <v>544</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B63" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C63" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F63" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G63" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H63" t="s">
         <v>169</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J63" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K63" t="s">
         <v>69</v>
       </c>
       <c r="L63" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="M63" t="s">
-        <v>638</v>
+        <v>636</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0.13200000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5951,8 +6256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B4B782-9590-4698-A579-9B2671020795}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
